--- a/PCI_DSS_4.0.1_Compliance_Tracker_2025.xlsx
+++ b/PCI_DSS_4.0.1_Compliance_Tracker_2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuevsued-my.sharepoint.com/personal/nair-st_in001_itgr_net/Documents/PCI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuevsued-my.sharepoint.com/personal/nair-st_in001_itgr_net/Documents/PCI/Dashboard Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="201" documentId="8_{E8791190-7B75-46C7-90EB-7673D68D6012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{394793D8-7AED-42E3-868F-230997F245D9}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="8_{E8791190-7B75-46C7-90EB-7673D68D6012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01F54EC8-3697-4BF1-BE2F-81A875503E75}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="181">
   <si>
     <t>REQ 1</t>
   </si>
@@ -1042,6 +1042,15 @@
   </si>
   <si>
     <t>QSA Comments</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Pending - Missing Details</t>
+  </si>
+  <si>
+    <t>Refer to email shared on May 16 &amp; 19</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1278,9 +1287,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1296,6 +1302,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1684,13 +1695,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G137"/>
+  <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1701,7 +1712,7 @@
     <col min="4" max="4" width="52.1796875" style="12" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15.453125" style="15" customWidth="1"/>
     <col min="6" max="6" width="16.08984375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.81640625" style="2" customWidth="1"/>
     <col min="8" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
@@ -1746,8 +1757,9 @@
         <v>69</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>90</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
@@ -1767,8 +1779,9 @@
         <v>69</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>90</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
@@ -1788,7 +1801,10 @@
         <v>69</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>90</v>
+        <v>179</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -1809,8 +1825,9 @@
         <v>69</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>90</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
@@ -1830,8 +1847,9 @@
         <v>69</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>90</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
@@ -1851,7 +1869,10 @@
         <v>69</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>90</v>
+        <v>179</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -1872,8 +1893,9 @@
         <v>69</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>90</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
@@ -1895,6 +1917,7 @@
       <c r="F9" s="19" t="s">
         <v>90</v>
       </c>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
@@ -1914,6 +1937,7 @@
       <c r="F10" s="19" t="s">
         <v>90</v>
       </c>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
@@ -1935,6 +1959,7 @@
       <c r="F11" s="19" t="s">
         <v>90</v>
       </c>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
@@ -1956,6 +1981,7 @@
       <c r="F12" s="19" t="s">
         <v>90</v>
       </c>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
@@ -1977,6 +2003,7 @@
       <c r="F13" s="19" t="s">
         <v>90</v>
       </c>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
@@ -1998,6 +2025,7 @@
       <c r="F14" s="19" t="s">
         <v>90</v>
       </c>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
@@ -2019,6 +2047,7 @@
       <c r="F15" s="19" t="s">
         <v>90</v>
       </c>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
@@ -2040,8 +2069,9 @@
       <c r="F16" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2061,8 +2091,9 @@
       <c r="F17" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2082,8 +2113,9 @@
       <c r="F18" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2103,8 +2135,9 @@
       <c r="F19" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2124,8 +2157,9 @@
       <c r="F20" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="106" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="1:7" ht="106" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2145,8 +2179,9 @@
       <c r="F21" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="G21" s="25"/>
+    </row>
+    <row r="22" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2166,8 +2201,9 @@
       <c r="F22" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G22" s="25"/>
+    </row>
+    <row r="23" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2187,8 +2223,9 @@
       <c r="F23" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G23" s="25"/>
+    </row>
+    <row r="24" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2208,8 +2245,9 @@
       <c r="F24" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G24" s="25"/>
+    </row>
+    <row r="25" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2229,8 +2267,9 @@
       <c r="F25" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G25" s="25"/>
+    </row>
+    <row r="26" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2250,8 +2289,9 @@
       <c r="F26" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G26" s="25"/>
+    </row>
+    <row r="27" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2271,8 +2311,9 @@
       <c r="F27" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="G27" s="25"/>
+    </row>
+    <row r="28" spans="1:7" ht="145" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2292,8 +2333,9 @@
       <c r="F28" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="G28" s="25"/>
+    </row>
+    <row r="29" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2311,8 +2353,9 @@
       <c r="F29" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G29" s="25"/>
+    </row>
+    <row r="30" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2332,8 +2375,9 @@
       <c r="F30" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G30" s="25"/>
+    </row>
+    <row r="31" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2353,8 +2397,9 @@
       <c r="F31" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="25"/>
+    </row>
+    <row r="32" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2372,8 +2417,9 @@
       <c r="F32" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="239" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="25"/>
+    </row>
+    <row r="33" spans="1:7" ht="239" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2393,8 +2439,9 @@
       <c r="F33" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G33" s="25"/>
+    </row>
+    <row r="34" spans="1:7" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2414,8 +2461,9 @@
       <c r="F34" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="G34" s="25"/>
+    </row>
+    <row r="35" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2435,8 +2483,9 @@
       <c r="F35" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="146" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G35" s="25"/>
+    </row>
+    <row r="36" spans="1:7" ht="146" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2454,8 +2503,9 @@
       <c r="F36" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G36" s="25"/>
+    </row>
+    <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2475,8 +2525,9 @@
       <c r="F37" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G37" s="25"/>
+    </row>
+    <row r="38" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2496,8 +2547,9 @@
       <c r="F38" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G38" s="25"/>
+    </row>
+    <row r="39" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2517,8 +2569,9 @@
       <c r="F39" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G39" s="25"/>
+    </row>
+    <row r="40" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2538,8 +2591,9 @@
       <c r="F40" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G40" s="25"/>
+    </row>
+    <row r="41" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2557,8 +2611,9 @@
       <c r="F41" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G41" s="25"/>
+    </row>
+    <row r="42" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2578,8 +2633,9 @@
       <c r="F42" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G42" s="25"/>
+    </row>
+    <row r="43" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2599,8 +2655,9 @@
       <c r="F43" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G43" s="25"/>
+    </row>
+    <row r="44" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2620,8 +2677,9 @@
       <c r="F44" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="121.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G44" s="25"/>
+    </row>
+    <row r="45" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2641,8 +2699,9 @@
       <c r="F45" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="G45" s="25"/>
+    </row>
+    <row r="46" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2662,8 +2721,9 @@
       <c r="F46" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="G46" s="25"/>
+    </row>
+    <row r="47" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2683,8 +2743,9 @@
       <c r="F47" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="G47" s="25"/>
+    </row>
+    <row r="48" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2702,8 +2763,9 @@
       <c r="F48" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="77" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G48" s="25"/>
+    </row>
+    <row r="49" spans="1:7" ht="77" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2721,8 +2783,9 @@
       <c r="F49" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G49" s="25"/>
+    </row>
+    <row r="50" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2742,8 +2805,9 @@
       <c r="F50" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G50" s="25"/>
+    </row>
+    <row r="51" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2763,8 +2827,9 @@
       <c r="F51" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G51" s="25"/>
+    </row>
+    <row r="52" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2784,8 +2849,9 @@
       <c r="F52" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G52" s="25"/>
+    </row>
+    <row r="53" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="6">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2805,8 +2871,9 @@
       <c r="F53" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G53" s="25"/>
+    </row>
+    <row r="54" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="6">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2826,8 +2893,9 @@
       <c r="F54" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="111" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G54" s="25"/>
+    </row>
+    <row r="55" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2847,8 +2915,9 @@
       <c r="F55" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="111" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G55" s="25"/>
+    </row>
+    <row r="56" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2859,15 +2928,16 @@
       <c r="C56" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="D56" s="23"/>
+      <c r="D56" s="22"/>
       <c r="E56" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F56" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G56" s="25"/>
+    </row>
+    <row r="57" spans="1:7" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="6">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2884,8 +2954,9 @@
       <c r="F57" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="G57" s="25"/>
+    </row>
+    <row r="58" spans="1:7" ht="145" x14ac:dyDescent="0.35">
       <c r="A58" s="6">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2902,8 +2973,9 @@
       <c r="F58" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="183" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G58" s="25"/>
+    </row>
+    <row r="59" spans="1:7" ht="183" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="6">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2923,8 +2995,9 @@
       <c r="F59" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="78.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G59" s="25"/>
+    </row>
+    <row r="60" spans="1:7" ht="78.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2944,8 +3017,9 @@
       <c r="F60" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G60" s="25"/>
+    </row>
+    <row r="61" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2965,8 +3039,9 @@
       <c r="F61" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G61" s="25"/>
+    </row>
+    <row r="62" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="6">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2986,8 +3061,9 @@
       <c r="F62" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G62" s="25"/>
+    </row>
+    <row r="63" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="6">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3007,8 +3083,9 @@
       <c r="F63" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="G63" s="25"/>
+    </row>
+    <row r="64" spans="1:7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="6">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3016,7 +3093,7 @@
       <c r="B64" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="21" t="s">
         <v>170</v>
       </c>
       <c r="E64" s="9" t="s">
@@ -3025,8 +3102,9 @@
       <c r="F64" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G64" s="26"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="6">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3046,8 +3124,9 @@
       <c r="F65" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G65" s="25"/>
+    </row>
+    <row r="66" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="6">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3067,8 +3146,9 @@
       <c r="F66" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="116" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G66" s="25"/>
+    </row>
+    <row r="67" spans="1:7" ht="116" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="6">
         <f t="shared" ref="A67:A92" si="1">ROW()-1</f>
         <v>66</v>
@@ -3088,8 +3168,9 @@
       <c r="F67" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="203" x14ac:dyDescent="0.35">
+      <c r="G67" s="25"/>
+    </row>
+    <row r="68" spans="1:7" ht="203" x14ac:dyDescent="0.35">
       <c r="A68" s="6">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -3109,8 +3190,9 @@
       <c r="F68" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="G68" s="25"/>
+    </row>
+    <row r="69" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A69" s="6">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -3130,8 +3212,9 @@
       <c r="F69" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G69" s="25"/>
+    </row>
+    <row r="70" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A70" s="6">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -3151,8 +3234,9 @@
       <c r="F70" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G70" s="25"/>
+    </row>
+    <row r="71" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A71" s="6">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -3172,8 +3256,9 @@
       <c r="F71" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G71" s="25"/>
+    </row>
+    <row r="72" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="6">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -3193,8 +3278,9 @@
       <c r="F72" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G72" s="25"/>
+    </row>
+    <row r="73" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A73" s="6">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -3214,8 +3300,9 @@
       <c r="F73" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G73" s="25"/>
+    </row>
+    <row r="74" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="6">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -3235,8 +3322,9 @@
       <c r="F74" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G74" s="25"/>
+    </row>
+    <row r="75" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A75" s="6">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -3256,8 +3344,9 @@
       <c r="F75" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="203" x14ac:dyDescent="0.35">
+      <c r="G75" s="25"/>
+    </row>
+    <row r="76" spans="1:7" ht="203" x14ac:dyDescent="0.35">
       <c r="A76" s="6">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -3275,8 +3364,9 @@
       <c r="F76" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="261" x14ac:dyDescent="0.35">
+      <c r="G76" s="25"/>
+    </row>
+    <row r="77" spans="1:7" ht="261" x14ac:dyDescent="0.35">
       <c r="A77" s="6">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -3294,8 +3384,9 @@
       <c r="F77" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="G77" s="25"/>
+    </row>
+    <row r="78" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A78" s="6">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -3313,8 +3404,9 @@
       <c r="F78" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G78" s="25"/>
+    </row>
+    <row r="79" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A79" s="6">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -3334,8 +3426,9 @@
       <c r="F79" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G79" s="25"/>
+    </row>
+    <row r="80" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="6">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -3355,8 +3448,9 @@
       <c r="F80" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G80" s="25"/>
+    </row>
+    <row r="81" spans="1:7" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="6">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -3374,8 +3468,9 @@
       <c r="F81" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="167" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G81" s="25"/>
+    </row>
+    <row r="82" spans="1:7" ht="167" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="6">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -3395,8 +3490,9 @@
       <c r="F82" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="102.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G82" s="25"/>
+    </row>
+    <row r="83" spans="1:7" ht="102.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="6">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -3416,8 +3512,9 @@
       <c r="F83" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="191.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G83" s="25"/>
+    </row>
+    <row r="84" spans="1:7" ht="191.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="6">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -3437,8 +3534,9 @@
       <c r="F84" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G84" s="25"/>
+    </row>
+    <row r="85" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="6">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -3458,8 +3556,9 @@
       <c r="F85" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G85" s="25"/>
+    </row>
+    <row r="86" spans="1:7" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -3479,8 +3578,9 @@
       <c r="F86" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="140" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G86" s="25"/>
+    </row>
+    <row r="87" spans="1:7" ht="140" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -3500,8 +3600,9 @@
       <c r="F87" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G87" s="25"/>
+    </row>
+    <row r="88" spans="1:7" ht="61" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -3521,8 +3622,9 @@
       <c r="F88" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="G88" s="25"/>
+    </row>
+    <row r="89" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A89" s="6">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -3542,8 +3644,9 @@
       <c r="F89" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="G89" s="25"/>
+    </row>
+    <row r="90" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A90" s="6">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -3563,13 +3666,14 @@
       <c r="F90" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G90" s="25"/>
+    </row>
+    <row r="91" spans="1:7" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="6">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B91" s="24" t="s">
+      <c r="B91" s="23" t="s">
         <v>89</v>
       </c>
       <c r="C91" s="19" t="s">
@@ -3584,8 +3688,9 @@
       <c r="F91" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G91" s="25"/>
+    </row>
+    <row r="92" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -3605,8 +3710,9 @@
       <c r="F92" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="327" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G92" s="25"/>
+    </row>
+    <row r="93" spans="1:7" ht="327" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="6">
         <f>ROW()-1</f>
         <v>92</v>
@@ -3626,8 +3732,9 @@
       <c r="F93" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="G93" s="25"/>
+    </row>
+    <row r="94" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A94" s="6">
         <f>ROW()-1</f>
         <v>93</v>
@@ -3647,8 +3754,9 @@
       <c r="F94" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G94" s="25"/>
+    </row>
+    <row r="95" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="6">
         <f t="shared" ref="A95:A134" si="2">ROW()-1</f>
         <v>94</v>
@@ -3668,8 +3776,9 @@
       <c r="F95" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G95" s="25"/>
+    </row>
+    <row r="96" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="6">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -3689,8 +3798,9 @@
       <c r="F96" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G96" s="25"/>
+    </row>
+    <row r="97" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="6">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -3710,8 +3820,9 @@
       <c r="F97" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G97" s="25"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="6">
         <f t="shared" si="2"/>
         <v>97</v>
@@ -3731,8 +3842,9 @@
       <c r="F98" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="G98" s="25"/>
+    </row>
+    <row r="99" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A99" s="6">
         <f t="shared" si="2"/>
         <v>98</v>
@@ -3750,8 +3862,9 @@
       <c r="F99" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G99" s="25"/>
+    </row>
+    <row r="100" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="6">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -3771,8 +3884,9 @@
       <c r="F100" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G100" s="25"/>
+    </row>
+    <row r="101" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="6">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -3792,8 +3906,9 @@
       <c r="F101" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G101" s="25"/>
+    </row>
+    <row r="102" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="6">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -3813,8 +3928,9 @@
       <c r="F102" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="G102" s="25"/>
+    </row>
+    <row r="103" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A103" s="6">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -3822,7 +3938,7 @@
       <c r="B103" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C103" s="21" t="s">
+      <c r="C103" s="20" t="s">
         <v>168</v>
       </c>
       <c r="D103" s="11" t="s">
@@ -3834,8 +3950,9 @@
       <c r="F103" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G103" s="25"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="6">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -3855,8 +3972,9 @@
       <c r="F104" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G104" s="25"/>
+    </row>
+    <row r="105" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="6">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -3876,8 +3994,9 @@
       <c r="F105" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G105" s="25"/>
+    </row>
+    <row r="106" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="6">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -3897,8 +4016,9 @@
       <c r="F106" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G106" s="25"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="6">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -3918,8 +4038,9 @@
       <c r="F107" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G107" s="25"/>
+    </row>
+    <row r="108" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="6">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -3939,8 +4060,9 @@
       <c r="F108" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="G108" s="25"/>
+    </row>
+    <row r="109" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A109" s="6">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -3960,8 +4082,9 @@
       <c r="F109" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="G109" s="25"/>
+    </row>
+    <row r="110" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A110" s="6">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -3981,8 +4104,9 @@
       <c r="F110" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="G110" s="25"/>
+    </row>
+    <row r="111" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A111" s="6">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -4000,8 +4124,9 @@
       <c r="F111" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G111" s="25"/>
+    </row>
+    <row r="112" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="6">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -4021,8 +4146,9 @@
       <c r="F112" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G112" s="25"/>
+    </row>
+    <row r="113" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="6">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -4042,8 +4168,9 @@
       <c r="F113" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" ht="234" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G113" s="25"/>
+    </row>
+    <row r="114" spans="1:7" ht="234" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="6">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -4051,7 +4178,7 @@
       <c r="B114" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C114" s="25" t="s">
+      <c r="C114" s="24" t="s">
         <v>169</v>
       </c>
       <c r="D114" s="11" t="s">
@@ -4063,8 +4190,9 @@
       <c r="F114" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G114" s="25"/>
+    </row>
+    <row r="115" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="6">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -4084,8 +4212,9 @@
       <c r="F115" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G115" s="25"/>
+    </row>
+    <row r="116" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="6">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -4105,8 +4234,9 @@
       <c r="F116" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G116" s="25"/>
+    </row>
+    <row r="117" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="6">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -4126,8 +4256,9 @@
       <c r="F117" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G117" s="25"/>
+    </row>
+    <row r="118" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="6">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -4147,8 +4278,9 @@
       <c r="F118" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="G118" s="25"/>
+    </row>
+    <row r="119" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A119" s="6">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -4156,7 +4288,7 @@
       <c r="B119" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C119" s="21" t="s">
+      <c r="C119" s="20" t="s">
         <v>161</v>
       </c>
       <c r="D119" s="11"/>
@@ -4166,8 +4298,9 @@
       <c r="F119" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G119" s="25"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="6">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -4187,8 +4320,9 @@
       <c r="F120" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G120" s="25"/>
+    </row>
+    <row r="121" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="6">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -4208,8 +4342,9 @@
       <c r="F121" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="G121" s="25"/>
+    </row>
+    <row r="122" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A122" s="6">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -4227,8 +4362,9 @@
       <c r="F122" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G122" s="25"/>
+    </row>
+    <row r="123" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A123" s="6">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -4248,8 +4384,9 @@
       <c r="F123" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="G123" s="25"/>
+    </row>
+    <row r="124" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A124" s="6">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -4267,8 +4404,9 @@
       <c r="F124" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="G124" s="25"/>
+    </row>
+    <row r="125" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A125" s="6">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -4288,8 +4426,9 @@
       <c r="F125" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+      <c r="G125" s="25"/>
+    </row>
+    <row r="126" spans="1:7" ht="174" x14ac:dyDescent="0.35">
       <c r="A126" s="6">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -4309,8 +4448,9 @@
       <c r="F126" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="G126" s="25"/>
+    </row>
+    <row r="127" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A127" s="6">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -4330,8 +4470,9 @@
       <c r="F127" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G127" s="25"/>
+    </row>
+    <row r="128" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" s="6">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -4351,8 +4492,9 @@
       <c r="F128" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G128" s="25"/>
+    </row>
+    <row r="129" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="6">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -4372,8 +4514,9 @@
       <c r="F129" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G129" s="25"/>
+    </row>
+    <row r="130" spans="1:7" ht="47" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="6">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -4393,8 +4536,9 @@
       <c r="F130" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G130" s="25"/>
+    </row>
+    <row r="131" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A131" s="6">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -4414,8 +4558,9 @@
       <c r="F131" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G131" s="25"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="6">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -4435,8 +4580,9 @@
       <c r="F132" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="G132" s="25"/>
+    </row>
+    <row r="133" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A133" s="6">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -4456,8 +4602,9 @@
       <c r="F133" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G133" s="25"/>
+    </row>
+    <row r="134" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="6">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -4477,30 +4624,7 @@
       <c r="F134" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A135" s="6"/>
-      <c r="B135" s="16"/>
-      <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="19"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A136" s="6"/>
-      <c r="B136" s="20"/>
-      <c r="C136" s="19"/>
-      <c r="D136" s="19"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="19"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A137" s="6"/>
-      <c r="B137" s="20"/>
-      <c r="C137" s="19"/>
-      <c r="D137" s="19"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="19"/>
+      <c r="G134" s="25"/>
     </row>
   </sheetData>
   <sheetProtection autoFilter="0"/>

--- a/PCI_DSS_4.0.1_Compliance_Tracker_2025.xlsx
+++ b/PCI_DSS_4.0.1_Compliance_Tracker_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuevsued-my.sharepoint.com/personal/nair-st_in001_itgr_net/Documents/PCI/Dashboard Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="8_{E8791190-7B75-46C7-90EB-7673D68D6012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01F54EC8-3697-4BF1-BE2F-81A875503E75}"/>
+  <xr:revisionPtr revIDLastSave="245" documentId="8_{E8791190-7B75-46C7-90EB-7673D68D6012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F551B258-0864-4787-851B-2D3C0FE220B8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="183">
   <si>
     <t>REQ 1</t>
   </si>
@@ -1051,6 +1051,12 @@
   </si>
   <si>
     <t>Refer to email shared on May 16 &amp; 19</t>
+  </si>
+  <si>
+    <t>Pending - Incorrect Evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please provide sample alert evidence </t>
   </si>
 </sst>
 </file>
@@ -1698,10 +1704,10 @@
   <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1935,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="G10" s="25"/>
     </row>
@@ -2395,7 +2401,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="G31" s="25"/>
     </row>
@@ -2415,7 +2421,7 @@
         <v>2</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="G32" s="25"/>
     </row>
@@ -2675,7 +2681,7 @@
         <v>4</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="G44" s="25"/>
     </row>
@@ -2803,9 +2809,11 @@
         <v>5</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="G50" s="25"/>
+        <v>181</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="51" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
@@ -2847,7 +2855,7 @@
         <v>5</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="G52" s="25"/>
     </row>
@@ -3059,7 +3067,7 @@
         <v>6</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="G62" s="25"/>
     </row>
@@ -3554,7 +3562,7 @@
         <v>8</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="G85" s="25"/>
     </row>
@@ -3926,7 +3934,7 @@
         <v>11</v>
       </c>
       <c r="F102" s="19" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="G102" s="25"/>
     </row>
@@ -4144,7 +4152,7 @@
         <v>16</v>
       </c>
       <c r="F112" s="19" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="G112" s="25"/>
     </row>
@@ -4166,7 +4174,7 @@
         <v>16</v>
       </c>
       <c r="F113" s="19" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="G113" s="25"/>
     </row>
@@ -4210,7 +4218,7 @@
         <v>16</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="G115" s="25"/>
     </row>
@@ -4232,7 +4240,7 @@
         <v>16</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="G116" s="25"/>
     </row>
@@ -4254,7 +4262,7 @@
         <v>16</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="G117" s="25"/>
     </row>
@@ -4402,7 +4410,7 @@
         <v>16</v>
       </c>
       <c r="F124" s="19" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="G124" s="25"/>
     </row>
@@ -4424,7 +4432,7 @@
         <v>16</v>
       </c>
       <c r="F125" s="19" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="G125" s="25"/>
     </row>
@@ -4622,7 +4630,7 @@
         <v>16</v>
       </c>
       <c r="F134" s="19" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="G134" s="25"/>
     </row>

--- a/PCI_DSS_4.0.1_Compliance_Tracker_2025.xlsx
+++ b/PCI_DSS_4.0.1_Compliance_Tracker_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuevsued-my.sharepoint.com/personal/nair-st_in001_itgr_net/Documents/PCI/Dashboard Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="245" documentId="8_{E8791190-7B75-46C7-90EB-7673D68D6012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F551B258-0864-4787-851B-2D3C0FE220B8}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="8_{E8791190-7B75-46C7-90EB-7673D68D6012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69051335-61FE-4EA0-A9EE-A350218B7A51}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="188">
   <si>
     <t>REQ 1</t>
   </si>
@@ -1057,6 +1057,24 @@
   </si>
   <si>
     <t xml:space="preserve">Please provide sample alert evidence </t>
+  </si>
+  <si>
+    <t>Evidence of use of HTTPS, TLS 1.2 or above required</t>
+  </si>
+  <si>
+    <t>Evidence required - A list of personnel with permission to copy and/or relocate PAN along with the documented, explicit authorization and legitimate, defined business need.</t>
+  </si>
+  <si>
+    <t>Evidence of how the logs are protected not provided in the evidence file</t>
+  </si>
+  <si>
+    <t>Switch - Missing
+DB - Missing
+Windows - Hardening of Win 2019 provided. Missing for 2016, 2022
+Vmware - Missing</t>
+  </si>
+  <si>
+    <t>Firewall Rule Review_May 13 2024 SS Version - Not a valid report. Report doesn't fall under the current cert cycle</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1313,6 +1331,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1707,7 +1729,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G50" sqref="G50"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1718,7 +1740,7 @@
     <col min="4" max="4" width="52.1796875" style="12" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15.453125" style="15" customWidth="1"/>
     <col min="6" max="6" width="16.08984375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="26.81640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="40.08984375" style="2" customWidth="1"/>
     <col min="8" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
@@ -2029,9 +2051,11 @@
         <v>0</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="25"/>
+        <v>179</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
@@ -2117,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="G18" s="25"/>
     </row>
@@ -2209,7 +2233,7 @@
       </c>
       <c r="G22" s="25"/>
     </row>
-    <row r="23" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2227,9 +2251,11 @@
         <v>1</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="25"/>
+        <v>179</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
@@ -2507,9 +2533,11 @@
         <v>2</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="G36" s="25"/>
+        <v>179</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
@@ -2595,9 +2623,11 @@
         <v>3</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="G40" s="25"/>
+        <v>181</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
@@ -2767,7 +2797,7 @@
         <v>4</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="G48" s="25"/>
     </row>
@@ -3130,7 +3160,7 @@
         <v>6</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="G65" s="25"/>
     </row>
@@ -3764,7 +3794,7 @@
       </c>
       <c r="G94" s="25"/>
     </row>
-    <row r="95" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A95" s="6">
         <f t="shared" ref="A95:A134" si="2">ROW()-1</f>
         <v>94</v>
@@ -3782,9 +3812,11 @@
         <v>9</v>
       </c>
       <c r="F95" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="G95" s="25"/>
+        <v>181</v>
+      </c>
+      <c r="G95" s="27" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="96" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="6">
@@ -3804,7 +3836,7 @@
         <v>9</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="G96" s="25"/>
     </row>
@@ -4564,7 +4596,7 @@
         <v>16</v>
       </c>
       <c r="F131" s="19" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="G131" s="25"/>
     </row>
@@ -4586,7 +4618,7 @@
         <v>16</v>
       </c>
       <c r="F132" s="19" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="G132" s="25"/>
     </row>
@@ -4635,7 +4667,7 @@
       <c r="G134" s="25"/>
     </row>
   </sheetData>
-  <sheetProtection autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Npx8vY8ta+yfajM4l/vLHavdcFMVs15CSaFJ0hFdeXSoJ2SNXIJXdgzVUJxiNVGM3/IHna89o61pqhJGCdVkgQ==" saltValue="5hz9EVevFF/0Z8EW5whf+w==" spinCount="100000" sheet="1" autoFilter="0"/>
   <autoFilter ref="A1:F134" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">

--- a/PCI_DSS_4.0.1_Compliance_Tracker_2025.xlsx
+++ b/PCI_DSS_4.0.1_Compliance_Tracker_2025.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuevsued-my.sharepoint.com/personal/nair-st_in001_itgr_net/Documents/PCI/Dashboard Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_F25DC773A252ABDACC104850695C46945BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DD176BC-0110-41B1-A675-95D3EC721E55}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_F25DC773A252ABDACC104850695C46945BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA77D295-52C7-45F1-8D04-40D070E01AFF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PCI DSS Audit Evidences" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1441,10 +1441,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>

--- a/PCI_DSS_4.0.1_Compliance_Tracker_2025.xlsx
+++ b/PCI_DSS_4.0.1_Compliance_Tracker_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuevsued-my.sharepoint.com/personal/nair-st_in001_itgr_net/Documents/PCI/Dashboard Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_F25DC773A252ABDACC104850695C46945BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA77D295-52C7-45F1-8D04-40D070E01AFF}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="11_F25DC773A252ABDACC104850695C46945BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F9849CA-1C07-431D-9908-5E4F85353549}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="206">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>Network Security Controls (Firewall) Ruleset Review Report (2 Compliant Bi-Annual Reports)</t>
-  </si>
-  <si>
-    <t>Firewall Rule Review_May 13 2024 SS Version - Not a valid report. Report doesn't fall under the current cert cycle</t>
   </si>
   <si>
     <t>Provide details of how NSC configuration files are backed up and kept secured and consistent with the current active network configurations.</t>
@@ -197,12 +194,6 @@
   </si>
   <si>
     <t>Provide hardening documents for all in-scope technologies (e.g. windows, Linux, firewalls, routers, switches, etc)</t>
-  </si>
-  <si>
-    <t>Switch - Missing
-DB - Missing
-Windows - Hardening of Win 2019 provided. Missing for 2016, 2022
-Vmware - Missing</t>
   </si>
   <si>
     <t>Sample-Wise</t>
@@ -1094,6 +1085,106 @@
  - Key Custodian Forms for both DEK and KEK
  - List of users who have access to cleartext cryptographic key components
 </t>
+  </si>
+  <si>
+    <t>Firewall Rule Review_May 13 2024 SS Version - Not a valid report. Report doesn't fall under the current cert cycle
+New report provided</t>
+  </si>
+  <si>
+    <t>Sample Alerts - Missing</t>
+  </si>
+  <si>
+    <t>Change Management Policy - Okay 
+Change tickets - Pending</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dev, UAT and Production Users - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Missing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Encryption Keys used in UAT must be different from Prod - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Missing</t>
+    </r>
+  </si>
+  <si>
+    <t>Please provide complete ACLS of Critical NW Devices
+ SIFY-INTEERNET-FIREWALL-01
+FORTINETADC-1
+INHPY-SIFYDC-MUM-CRSW-2
+INPRZ-SIFY-DR-CRFW-1
+INPRZ-SIFY-DC-WANRTR-1
+INPRZ-DAKC-DC-C5525X-NEWCRFW-2
+INPRZ-NOIDA-OFF-WANRTR-1</t>
+  </si>
+  <si>
+    <t>Only policy evidence provided. Please provide the required evidence asked in the given control</t>
+  </si>
+  <si>
+    <t>Please provide evidence for the sampled firewalls</t>
+  </si>
+  <si>
+    <t>Please provide evidence for the Internet firewalls</t>
+  </si>
+  <si>
+    <t>Switch - Missing
+Windows - Hardening of Win 2019 provided. Missing for Win 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The provided evidence doesn't show the details of group, shared, or generic accounts that is currently being used in the in-scope environment </t>
+  </si>
+  <si>
+    <t>Provide evidence for -- Also provide a list of all internal and external users with remote access to CDE.</t>
+  </si>
+  <si>
+    <t>Required session timeout for VPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For which location the evidence has been provided. Also note that evidence is required for all in-scope locations. </t>
+  </si>
+  <si>
+    <t>Network device (FW, Switch, Router), DB logs missing</t>
+  </si>
+  <si>
+    <t>Incorrect Evidence - Segmentation PT Report Provided</t>
+  </si>
+  <si>
+    <t>H1 Report - Okay 
+H2 Report - Pending</t>
+  </si>
+  <si>
+    <t>Please refer to the Sample Set review sheet</t>
+  </si>
+  <si>
+    <t>Under Review</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1329,7 +1420,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1439,6 +1529,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1706,17 +1800,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" style="25" customWidth="1"/>
+    <col min="1" max="1" width="11" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" style="24" customWidth="1"/>
     <col min="3" max="3" width="52.1796875" style="17" customWidth="1"/>
     <col min="4" max="4" width="52.1796875" style="17" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" style="26" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" style="25" customWidth="1"/>
     <col min="6" max="6" width="16.08984375" style="17" customWidth="1"/>
     <col min="7" max="7" width="40.08984375" style="12" customWidth="1"/>
     <col min="8" max="16384" width="8.7265625" style="12"/>
@@ -1985,7 +2079,7 @@
         <v>24</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G12" s="11"/>
     </row>
@@ -2011,7 +2105,7 @@
       </c>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2029,10 +2123,10 @@
         <v>24</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>33</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -2044,16 +2138,16 @@
         <v>22</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G15" s="11"/>
     </row>
@@ -2066,18 +2160,20 @@
         <v>25</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
@@ -2088,10 +2184,10 @@
         <v>25</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>24</v>
@@ -2110,10 +2206,10 @@
         <v>25</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>24</v>
@@ -2132,18 +2228,20 @@
         <v>25</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
@@ -2154,18 +2252,20 @@
         <v>25</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="106" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
@@ -2176,16 +2276,16 @@
         <v>25</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>42</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>43</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -2198,20 +2298,20 @@
         <v>25</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>45</v>
-      </c>
       <c r="F22" s="8" t="s">
         <v>21</v>
       </c>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2220,19 +2320,19 @@
         <v>22</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>47</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -2241,16 +2341,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>21</v>
@@ -2266,13 +2366,13 @@
         <v>25</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>21</v>
@@ -2285,16 +2385,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>21</v>
@@ -2310,16 +2410,16 @@
         <v>25</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>54</v>
-      </c>
       <c r="F27" s="8" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="G27" s="11"/>
     </row>
@@ -2332,16 +2432,16 @@
         <v>25</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="G28" s="11"/>
     </row>
@@ -2354,11 +2454,11 @@
         <v>25</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>21</v>
@@ -2374,13 +2474,13 @@
         <v>25</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>21</v>
@@ -2396,13 +2496,13 @@
         <v>22</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>10</v>
@@ -2418,11 +2518,11 @@
         <v>22</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>10</v>
@@ -2438,19 +2538,19 @@
         <v>25</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2462,13 +2562,13 @@
         <v>25</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>21</v>
@@ -2484,13 +2584,13 @@
         <v>25</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>21</v>
@@ -2506,17 +2606,17 @@
         <v>25</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -2528,16 +2628,16 @@
         <v>25</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G37" s="11"/>
     </row>
@@ -2550,16 +2650,16 @@
         <v>25</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G38" s="11"/>
     </row>
@@ -2572,13 +2672,13 @@
         <v>25</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>21</v>
@@ -2594,19 +2694,19 @@
         <v>25</v>
       </c>
       <c r="C40" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="14" t="s">
+      <c r="G40" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.35">
@@ -2618,11 +2718,11 @@
         <v>25</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>21</v>
@@ -2638,13 +2738,13 @@
         <v>25</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>21</v>
@@ -2660,13 +2760,13 @@
         <v>25</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>21</v>
@@ -2682,13 +2782,13 @@
         <v>22</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>10</v>
@@ -2701,21 +2801,23 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="46" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
@@ -2726,13 +2828,13 @@
         <v>25</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>21</v>
@@ -2748,13 +2850,13 @@
         <v>25</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>21</v>
@@ -2770,11 +2872,11 @@
         <v>25</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>10</v>
@@ -2790,11 +2892,11 @@
         <v>25</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D49" s="15"/>
       <c r="E49" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>21</v>
@@ -2810,19 +2912,19 @@
         <v>22</v>
       </c>
       <c r="C50" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -2831,16 +2933,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>21</v>
@@ -2856,13 +2958,13 @@
         <v>22</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>10</v>
@@ -2878,13 +2980,13 @@
         <v>25</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>21</v>
@@ -2900,19 +3002,19 @@
         <v>25</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.35">
@@ -2924,18 +3026,20 @@
         <v>25</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="56" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
@@ -2946,10 +3050,10 @@
         <v>25</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>21</v>
@@ -2965,10 +3069,10 @@
         <v>25</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>21</v>
@@ -2984,10 +3088,10 @@
         <v>25</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>21</v>
@@ -3003,18 +3107,20 @@
         <v>25</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="60" spans="1:7" ht="78.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6">
@@ -3025,13 +3131,13 @@
         <v>25</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>21</v>
@@ -3047,18 +3153,20 @@
         <v>25</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="62" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="6">
@@ -3069,13 +3177,13 @@
         <v>22</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>10</v>
@@ -3088,40 +3196,42 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E63" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" s="11"/>
+    </row>
+    <row r="64" spans="1:7" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A64" s="6">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F63" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" s="11"/>
-    </row>
-    <row r="64" spans="1:7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="6">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>103</v>
-      </c>
       <c r="E64" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" s="19"/>
+        <v>70</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="6">
@@ -3132,13 +3242,13 @@
         <v>25</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>10</v>
@@ -3154,13 +3264,13 @@
         <v>22</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F66" s="8" t="s">
         <v>21</v>
@@ -3176,13 +3286,13 @@
         <v>25</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>21</v>
@@ -3198,16 +3308,16 @@
         <v>25</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G68" s="11"/>
     </row>
@@ -3220,13 +3330,13 @@
         <v>25</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F69" s="8" t="s">
         <v>21</v>
@@ -3239,16 +3349,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F70" s="8" t="s">
         <v>21</v>
@@ -3261,16 +3371,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F71" s="8" t="s">
         <v>21</v>
@@ -3286,13 +3396,13 @@
         <v>25</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F72" s="8" t="s">
         <v>21</v>
@@ -3308,16 +3418,16 @@
         <v>25</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G73" s="11"/>
     </row>
@@ -3330,13 +3440,13 @@
         <v>25</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F74" s="8" t="s">
         <v>21</v>
@@ -3352,18 +3462,20 @@
         <v>25</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="76" spans="1:7" ht="203" x14ac:dyDescent="0.35">
       <c r="A76" s="6">
@@ -3374,11 +3486,11 @@
         <v>25</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D76" s="15"/>
       <c r="E76" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F76" s="8" t="s">
         <v>21</v>
@@ -3394,11 +3506,11 @@
         <v>25</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D77" s="15"/>
       <c r="E77" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>21</v>
@@ -3414,11 +3526,11 @@
         <v>25</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D78" s="15"/>
       <c r="E78" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F78" s="8" t="s">
         <v>21</v>
@@ -3434,18 +3546,20 @@
         <v>25</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="80" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="6">
@@ -3456,13 +3570,13 @@
         <v>25</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F80" s="8" t="s">
         <v>21</v>
@@ -3478,11 +3592,11 @@
         <v>22</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D81" s="15"/>
       <c r="E81" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F81" s="8" t="s">
         <v>21</v>
@@ -3498,18 +3612,20 @@
         <v>25</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="83" spans="1:7" ht="102.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="6">
@@ -3520,16 +3636,16 @@
         <v>25</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G83" s="11"/>
     </row>
@@ -3542,18 +3658,20 @@
         <v>25</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="85" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="6">
@@ -3564,13 +3682,13 @@
         <v>22</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>10</v>
@@ -3586,13 +3704,13 @@
         <v>25</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F86" s="8" t="s">
         <v>21</v>
@@ -3608,13 +3726,13 @@
         <v>25</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>21</v>
@@ -3630,13 +3748,13 @@
         <v>25</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F88" s="8" t="s">
         <v>21</v>
@@ -3652,13 +3770,13 @@
         <v>25</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F89" s="8" t="s">
         <v>21</v>
@@ -3674,13 +3792,13 @@
         <v>25</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F90" s="8" t="s">
         <v>21</v>
@@ -3692,17 +3810,17 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B91" s="20" t="s">
+      <c r="B91" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F91" s="8" t="s">
         <v>21</v>
@@ -3715,16 +3833,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F92" s="8" t="s">
         <v>21</v>
@@ -3740,18 +3858,20 @@
         <v>25</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="94" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A94" s="6">
@@ -3759,16 +3879,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F94" s="8" t="s">
         <v>21</v>
@@ -3784,19 +3904,19 @@
         <v>25</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -3808,13 +3928,13 @@
         <v>25</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F96" s="8" t="s">
         <v>10</v>
@@ -3830,16 +3950,16 @@
         <v>25</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G97" s="11"/>
     </row>
@@ -3852,16 +3972,16 @@
         <v>25</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G98" s="11"/>
     </row>
@@ -3874,11 +3994,11 @@
         <v>25</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D99" s="15"/>
       <c r="E99" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F99" s="8" t="s">
         <v>21</v>
@@ -3894,13 +4014,13 @@
         <v>22</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F100" s="8" t="s">
         <v>21</v>
@@ -3916,13 +4036,13 @@
         <v>25</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F101" s="8" t="s">
         <v>21</v>
@@ -3938,13 +4058,13 @@
         <v>22</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F102" s="8" t="s">
         <v>10</v>
@@ -3959,14 +4079,14 @@
       <c r="B103" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C103" s="21" t="s">
-        <v>150</v>
+      <c r="C103" s="20" t="s">
+        <v>148</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F103" s="8" t="s">
         <v>21</v>
@@ -3982,13 +4102,13 @@
         <v>25</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F104" s="8" t="s">
         <v>21</v>
@@ -4004,13 +4124,13 @@
         <v>25</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D105" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
+      </c>
+      <c r="D105" s="21" t="s">
+        <v>151</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F105" s="8" t="s">
         <v>21</v>
@@ -4026,20 +4146,20 @@
         <v>25</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F106" s="8" t="s">
         <v>21</v>
       </c>
       <c r="G106" s="11"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="6">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -4048,18 +4168,20 @@
         <v>25</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G107" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="G107" s="16" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="108" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="6">
@@ -4070,13 +4192,13 @@
         <v>22</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E108" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F108" s="8" t="s">
         <v>21</v>
@@ -4092,13 +4214,13 @@
         <v>25</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E109" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F109" s="8" t="s">
         <v>21</v>
@@ -4114,13 +4236,13 @@
         <v>25</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E110" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F110" s="8" t="s">
         <v>21</v>
@@ -4136,11 +4258,11 @@
         <v>25</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D111" s="15"/>
       <c r="E111" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F111" s="8" t="s">
         <v>21</v>
@@ -4156,13 +4278,13 @@
         <v>22</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F112" s="8" t="s">
         <v>10</v>
@@ -4178,13 +4300,13 @@
         <v>22</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F113" s="8" t="s">
         <v>10</v>
@@ -4199,14 +4321,14 @@
       <c r="B114" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C114" s="23" t="s">
-        <v>164</v>
+      <c r="C114" s="22" t="s">
+        <v>162</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E114" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F114" s="8" t="s">
         <v>21</v>
@@ -4222,13 +4344,13 @@
         <v>22</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F115" s="8" t="s">
         <v>10</v>
@@ -4244,13 +4366,13 @@
         <v>22</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F116" s="8" t="s">
         <v>10</v>
@@ -4266,13 +4388,13 @@
         <v>22</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E117" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F117" s="8" t="s">
         <v>10</v>
@@ -4288,13 +4410,13 @@
         <v>25</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E118" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F118" s="8" t="s">
         <v>21</v>
@@ -4309,17 +4431,19 @@
       <c r="B119" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C119" s="21" t="s">
-        <v>170</v>
+      <c r="C119" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="D119" s="15"/>
       <c r="E119" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G119" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="G119" s="11" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="6">
@@ -4330,13 +4454,13 @@
         <v>25</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E120" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F120" s="8" t="s">
         <v>21</v>
@@ -4352,13 +4476,13 @@
         <v>22</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E121" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F121" s="8" t="s">
         <v>21</v>
@@ -4374,11 +4498,11 @@
         <v>22</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D122" s="15"/>
       <c r="E122" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F122" s="8" t="s">
         <v>21</v>
@@ -4394,16 +4518,16 @@
         <v>22</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E123" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G123" s="11"/>
     </row>
@@ -4416,11 +4540,11 @@
         <v>22</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D124" s="15"/>
       <c r="E124" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F124" s="8" t="s">
         <v>10</v>
@@ -4436,13 +4560,13 @@
         <v>22</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F125" s="8" t="s">
         <v>10</v>
@@ -4458,13 +4582,13 @@
         <v>22</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F126" s="8" t="s">
         <v>21</v>
@@ -4480,18 +4604,20 @@
         <v>22</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E127" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G127" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="G127" s="16" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="128" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" s="6">
@@ -4502,13 +4628,13 @@
         <v>22</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F128" s="8" t="s">
         <v>21</v>
@@ -4524,13 +4650,13 @@
         <v>25</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F129" s="8" t="s">
         <v>21</v>
@@ -4546,13 +4672,13 @@
         <v>25</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E130" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F130" s="8" t="s">
         <v>21</v>
@@ -4568,13 +4694,13 @@
         <v>25</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E131" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F131" s="8" t="s">
         <v>10</v>
@@ -4590,13 +4716,13 @@
         <v>25</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E132" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F132" s="8" t="s">
         <v>10</v>
@@ -4612,13 +4738,13 @@
         <v>25</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E133" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F133" s="8" t="s">
         <v>21</v>
@@ -4634,13 +4760,13 @@
         <v>22</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F134" s="8" t="s">
         <v>10</v>
@@ -4648,7 +4774,7 @@
       <c r="G134" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="y8jdKY0gdjh3p0YPmj1PfOZN2z7lHIbHYsQsgPaiWVXLzaDWmNFAArCv0rxhgC+aRpTyXRhNx3XP0q4XiSHNjg==" saltValue="2qYQzjL63KdhAjB8mKBG3w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZCBNyEgBIDwk4BKV+0WDJZzHCsvg5Hf/dNxAf0ZwtnibPzhuaQvDlcmlEJl7Yys/njb5YNl6m3LieNCYQ3SERA==" saltValue="2tT+LKZia96BIUbs6Ar25A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Not Applicable"</formula>

--- a/PCI_DSS_4.0.1_Compliance_Tracker_2025.xlsx
+++ b/PCI_DSS_4.0.1_Compliance_Tracker_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuevsued-my.sharepoint.com/personal/nair-st_in001_itgr_net/Documents/PCI/Dashboard Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="11_F25DC773A252ABDACC104850695C46945BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F9849CA-1C07-431D-9908-5E4F85353549}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="11_F25DC773A252ABDACC104850695C46945BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39586DFB-64BE-4C02-A931-7445CE45A2D6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="216">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -1070,23 +1070,6 @@
     <t>Acknowledgement from staff at least annually that they have read and understood the security policy and procedures.</t>
   </si>
   <si>
-    <t>All the uploaded source code reports are old. Please upload the latest reports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Procedure document okay 
-Need the below evidence
-- Details of DEK and KEK strength and key-length
-- Screenshots of DEK and KEK generation functions
- - Location of encrypted DEK and KEK storage
- - Screenshots of encrypted DEK and KEK (at rest)
- - Location of encrypted PAN/SAD storage
- - Screenshot of encrypted PAN/SAD storage
-Screenshots from code showing encryption/decryption functions
- - Key Custodian Forms for both DEK and KEK
- - List of users who have access to cleartext cryptographic key components
-</t>
-  </si>
-  <si>
     <t>Firewall Rule Review_May 13 2024 SS Version - Not a valid report. Report doesn't fall under the current cert cycle
 New report provided</t>
   </si>
@@ -1185,6 +1168,128 @@
   </si>
   <si>
     <t>Under Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media Disposal Procedure - Okay
+Media Destructtion Records - Pending </t>
+  </si>
+  <si>
+    <t>Media Inventory - Pending</t>
+  </si>
+  <si>
+    <t>Please provide evidence for sampled database</t>
+  </si>
+  <si>
+    <t>Done*</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Procedure document - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>okay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+- Key Custodian Forms for both DEK and KEK - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Okay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - List of users who have access to cleartext cryptographic key components - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Okay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Need the below evidence
+- Details of DEK and KEK strength and key-length
+- Screenshots of DEK and KEK generation functions
+ - Location of encrypted DEK and KEK storage
+ - Screenshots of encrypted DEK and KEK (at rest)
+ - Location of encrypted PAN/SAD storage
+ - Screenshot of encrypted PAN/SAD storage
+Screenshots from code showing encryption/decryption functions
+ </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1 - Sept 2023 - Invalid
+Q2 - Dec 2023 - Invalid
+Q3 - Feb 2024 - Invalid
+Q4 - May 21st - Invalid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please provide all four quarters reports of all the inscope locations. </t>
+  </si>
+  <si>
+    <t>SISA IPS Incident Alert - Q98</t>
+  </si>
+  <si>
+    <t>Need H1 reports
+H2 - March 2025 - Okay</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>Please provide alerts related to FIM</t>
+  </si>
+  <si>
+    <t>Source code review report missing for below applications 
+E-Payment Hub
+EPO (POS Recon)
+Prima Application (Windows)
+YONO Application
+PG WebApp</t>
   </si>
 </sst>
 </file>
@@ -1800,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2126,7 +2231,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -2169,10 +2274,10 @@
         <v>24</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>70</v>
+        <v>207</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -2240,7 +2345,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2264,7 +2369,7 @@
         <v>13</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="106" customHeight="1" x14ac:dyDescent="0.35">
@@ -2332,7 +2437,7 @@
         <v>13</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -2419,7 +2524,7 @@
         <v>52</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G27" s="11"/>
     </row>
@@ -2441,7 +2546,7 @@
         <v>52</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G28" s="11"/>
     </row>
@@ -2483,7 +2588,7 @@
         <v>52</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -2550,7 +2655,7 @@
         <v>13</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2571,7 +2676,7 @@
         <v>52</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>21</v>
+        <v>213</v>
       </c>
       <c r="G34" s="11"/>
     </row>
@@ -2681,7 +2786,7 @@
         <v>52</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G39" s="11"/>
     </row>
@@ -2769,7 +2874,7 @@
         <v>69</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G43" s="11"/>
     </row>
@@ -2816,7 +2921,7 @@
         <v>13</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
@@ -2993,7 +3098,7 @@
       </c>
       <c r="G53" s="11"/>
     </row>
-    <row r="54" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A54" s="6">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3014,7 +3119,7 @@
         <v>13</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.35">
@@ -3038,7 +3143,7 @@
         <v>13</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.35">
@@ -3119,7 +3224,7 @@
         <v>10</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="78.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3165,7 +3270,7 @@
         <v>13</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -3230,7 +3335,7 @@
         <v>70</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -3295,9 +3400,11 @@
         <v>99</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="68" spans="1:7" ht="203" x14ac:dyDescent="0.35">
       <c r="A68" s="6">
@@ -3474,7 +3581,7 @@
         <v>13</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="203" x14ac:dyDescent="0.35">
@@ -3533,7 +3640,7 @@
         <v>109</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="G78" s="11"/>
     </row>
@@ -3558,7 +3665,7 @@
         <v>13</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -3579,9 +3686,11 @@
         <v>109</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="81" spans="1:7" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="6">
@@ -3599,7 +3708,7 @@
         <v>109</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G81" s="11"/>
     </row>
@@ -3624,7 +3733,7 @@
         <v>70</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="102.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3670,7 +3779,7 @@
         <v>70</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -3735,9 +3844,11 @@
         <v>122</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="88" spans="1:7" ht="61" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6">
@@ -3757,9 +3868,11 @@
         <v>122</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="G88" s="16" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="89" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A89" s="6">
@@ -3801,7 +3914,7 @@
         <v>122</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G90" s="11"/>
     </row>
@@ -3870,7 +3983,7 @@
         <v>70</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
@@ -4001,9 +4114,9 @@
         <v>134</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="G99" s="16"/>
     </row>
     <row r="100" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="6">
@@ -4027,7 +4140,7 @@
       </c>
       <c r="G100" s="11"/>
     </row>
-    <row r="101" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A101" s="6">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -4045,9 +4158,11 @@
         <v>145</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="G101" s="16" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="102" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="6">
@@ -4093,7 +4208,7 @@
       </c>
       <c r="G103" s="11"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A104" s="6">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -4111,9 +4226,11 @@
         <v>145</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="G104" s="16" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="105" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="6">
@@ -4180,7 +4297,7 @@
         <v>13</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -4201,7 +4318,7 @@
         <v>145</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G108" s="11"/>
     </row>
@@ -4223,9 +4340,11 @@
         <v>145</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="110" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A110" s="6">
@@ -4245,9 +4364,11 @@
         <v>145</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="111" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A111" s="6">
@@ -4442,7 +4563,7 @@
         <v>70</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
@@ -4463,7 +4584,7 @@
         <v>160</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G120" s="11"/>
     </row>
@@ -4485,7 +4606,7 @@
         <v>160</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G121" s="11"/>
     </row>
@@ -4616,7 +4737,7 @@
         <v>70</v>
       </c>
       <c r="G127" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -4637,7 +4758,7 @@
         <v>160</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G128" s="11"/>
     </row>
@@ -4681,7 +4802,7 @@
         <v>160</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G130" s="11"/>
     </row>
@@ -4747,7 +4868,7 @@
         <v>160</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G133" s="11"/>
     </row>
@@ -4774,7 +4895,7 @@
       <c r="G134" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZCBNyEgBIDwk4BKV+0WDJZzHCsvg5Hf/dNxAf0ZwtnibPzhuaQvDlcmlEJl7Yys/njb5YNl6m3LieNCYQ3SERA==" saltValue="2tT+LKZia96BIUbs6Ar25A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="89FrTW6agg10ZPyK7MtjFTQxj0ho+8P8avFn97CUq1LN+mxBm7qCbhNtSyp7viXR7+FwjAHRgqEQAl0zqZLt5g==" saltValue="b8u+5EeVY3fvn8DPBE00rA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Not Applicable"</formula>

--- a/PCI_DSS_4.0.1_Compliance_Tracker_2025.xlsx
+++ b/PCI_DSS_4.0.1_Compliance_Tracker_2025.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuevsued-my.sharepoint.com/personal/nair-st_in001_itgr_net/Documents/PCI/Dashboard Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="11_F25DC773A252ABDACC104850695C46945BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39586DFB-64BE-4C02-A931-7445CE45A2D6}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="11_F25DC773A252ABDACC104850695C46945BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C018DC15-6EA1-4541-901A-F27EC59B55CA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PCI DSS Audit Evidences" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PCI DSS Audit Evidences'!$A$1:$G$134</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="218">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -1129,17 +1132,10 @@
 INPRZ-NOIDA-OFF-WANRTR-1</t>
   </si>
   <si>
-    <t>Only policy evidence provided. Please provide the required evidence asked in the given control</t>
-  </si>
-  <si>
     <t>Please provide evidence for the sampled firewalls</t>
   </si>
   <si>
     <t>Please provide evidence for the Internet firewalls</t>
-  </si>
-  <si>
-    <t>Switch - Missing
-Windows - Hardening of Win 2019 provided. Missing for Win 2022</t>
   </si>
   <si>
     <t xml:space="preserve">The provided evidence doesn't show the details of group, shared, or generic accounts that is currently being used in the in-scope environment </t>
@@ -1172,9 +1168,6 @@
   <si>
     <t xml:space="preserve">Media Disposal Procedure - Okay
 Media Destructtion Records - Pending </t>
-  </si>
-  <si>
-    <t>Media Inventory - Pending</t>
   </si>
   <si>
     <t>Please provide evidence for sampled database</t>
@@ -1262,12 +1255,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Q1 - Sept 2023 - Invalid
-Q2 - Dec 2023 - Invalid
-Q3 - Feb 2024 - Invalid
-Q4 - May 21st - Invalid </t>
-  </si>
-  <si>
     <t xml:space="preserve">Please provide all four quarters reports of all the inscope locations. </t>
   </si>
   <si>
@@ -1290,6 +1277,27 @@
 Prima Application (Windows)
 YONO Application
 PG WebApp</t>
+  </si>
+  <si>
+    <t>Only policy evidence provided. Please provide the required evidence asked in the given control
+6/19/2025 - incorrect evidence</t>
+  </si>
+  <si>
+    <t>The training was conducted on 20 June 2024 which doesn't fall in the current cert cycle</t>
+  </si>
+  <si>
+    <t>Application PT pending</t>
+  </si>
+  <si>
+    <t>Switch - Missing</t>
+  </si>
+  <si>
+    <t>Q4 - Pending</t>
+  </si>
+  <si>
+    <t>Media Inventory - Pending
+Sify - navi mumbai
+Noida</t>
   </si>
 </sst>
 </file>
@@ -1905,8 +1913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2274,7 +2282,7 @@
         <v>24</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>190</v>
@@ -2345,7 +2353,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2369,7 +2377,7 @@
         <v>13</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="106" customHeight="1" x14ac:dyDescent="0.35">
@@ -2416,7 +2424,7 @@
       </c>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2437,7 +2445,7 @@
         <v>13</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -2524,7 +2532,7 @@
         <v>52</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G27" s="11"/>
     </row>
@@ -2546,7 +2554,7 @@
         <v>52</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G28" s="11"/>
     </row>
@@ -2655,7 +2663,7 @@
         <v>13</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2676,7 +2684,7 @@
         <v>52</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G34" s="11"/>
     </row>
@@ -2921,7 +2929,7 @@
         <v>13</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
@@ -3004,7 +3012,7 @@
         <v>76</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G49" s="11"/>
     </row>
@@ -3119,7 +3127,7 @@
         <v>13</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.35">
@@ -3245,9 +3253,11 @@
         <v>83</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="61" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
@@ -3335,7 +3345,7 @@
         <v>70</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -3403,7 +3413,7 @@
         <v>13</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="203" x14ac:dyDescent="0.35">
@@ -3581,7 +3591,7 @@
         <v>13</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="203" x14ac:dyDescent="0.35">
@@ -3600,7 +3610,7 @@
         <v>109</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="G76" s="11"/>
     </row>
@@ -3640,7 +3650,7 @@
         <v>109</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G78" s="11"/>
     </row>
@@ -3665,7 +3675,7 @@
         <v>13</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -3689,7 +3699,7 @@
         <v>13</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3733,7 +3743,7 @@
         <v>70</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="102.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3779,7 +3789,7 @@
         <v>70</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -3846,8 +3856,8 @@
       <c r="F87" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G87" s="11" t="s">
-        <v>205</v>
+      <c r="G87" s="16" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="61" customHeight="1" x14ac:dyDescent="0.35">
@@ -3871,7 +3881,7 @@
         <v>13</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
@@ -3983,7 +3993,7 @@
         <v>70</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
@@ -4161,7 +4171,7 @@
         <v>70</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -4208,7 +4218,7 @@
       </c>
       <c r="G103" s="11"/>
     </row>
-    <row r="104" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="6">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -4226,10 +4236,10 @@
         <v>145</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4250,7 +4260,7 @@
         <v>145</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G105" s="11"/>
     </row>
@@ -4272,9 +4282,11 @@
         <v>145</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="107" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="6">
@@ -4297,7 +4309,7 @@
         <v>13</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -4343,7 +4355,7 @@
         <v>10</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
@@ -4364,10 +4376,10 @@
         <v>145</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
@@ -4563,7 +4575,7 @@
         <v>70</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
@@ -4712,7 +4724,7 @@
         <v>160</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="G126" s="11"/>
     </row>
@@ -4737,7 +4749,7 @@
         <v>70</v>
       </c>
       <c r="G127" s="16" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -4895,7 +4907,8 @@
       <c r="G134" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="89FrTW6agg10ZPyK7MtjFTQxj0ho+8P8avFn97CUq1LN+mxBm7qCbhNtSyp7viXR7+FwjAHRgqEQAl0zqZLt5g==" saltValue="b8u+5EeVY3fvn8DPBE00rA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/MKBWL3N/euZEWYFdBz/6kh41o07LZGKX0RVjXU/dIxEM3kmaOgHPYBTxcYheaIFH2r+t+2noyhBV45L7tbfkw==" saltValue="dih821Sol7mC7Z/8JmQP8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <autoFilter ref="A1:G134" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Not Applicable"</formula>

--- a/PCI_DSS_4.0.1_Compliance_Tracker_2025.xlsx
+++ b/PCI_DSS_4.0.1_Compliance_Tracker_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuevsued-my.sharepoint.com/personal/nair-st_in001_itgr_net/Documents/PCI/Dashboard Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="11_F25DC773A252ABDACC104850695C46945BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C018DC15-6EA1-4541-901A-F27EC59B55CA}"/>
+  <xr:revisionPtr revIDLastSave="231" documentId="11_F25DC773A252ABDACC104850695C46945BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72610510-FF37-436A-9428-0BAB2158ABDA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="226">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -330,9 +330,6 @@
     <t>If Remote access technology is being used to access Cardholder Data (PAN), provide the following:
 - Technical controls in place for preventing the copy or relocation of PAN for unauthorized personnel
 - A list of personnel with permission to copy and/or relocate PAN along with the documented, explicit authorization and legitimate, defined business need.</t>
-  </si>
-  <si>
-    <t>Evidence required - A list of personnel with permission to copy and/or relocate PAN along with the documented, explicit authorization and legitimate, defined business need.</t>
   </si>
   <si>
     <t>Provide the business justification for display of full card numbers on front-end screens or backend files/systems</t>
@@ -1147,9 +1144,6 @@
     <t>Required session timeout for VPN</t>
   </si>
   <si>
-    <t xml:space="preserve">For which location the evidence has been provided. Also note that evidence is required for all in-scope locations. </t>
-  </si>
-  <si>
     <t>Network device (FW, Switch, Router), DB logs missing</t>
   </si>
   <si>
@@ -1161,9 +1155,6 @@
   </si>
   <si>
     <t>Please refer to the Sample Set review sheet</t>
-  </si>
-  <si>
-    <t>Under Review</t>
   </si>
   <si>
     <t xml:space="preserve">Media Disposal Procedure - Okay
@@ -1298,6 +1289,169 @@
     <t>Media Inventory - Pending
 Sify - navi mumbai
 Noida</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SELP - AOC required
+Wibmo - Pending
+Paycore - Pending
+SISA - Pending</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Airpay - Okay
+Ezetap - Okay
+Lyra - Okay
+M-Tech Innovations Ltd - Okay
+Manipal - Okay
+Sify - Okay (Certified by TUV)
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thane</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 
+- Log book for visitor access to facility -- Logs records provided only for the month of June. Need screenshot evidence of May and April.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Chennai:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Evidence of visitor badges (provide one or two sample visitor badge), showing the contents on the badge and the color of the badge. - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Missing
+Noida
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Provide all the evidence
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vikhroli</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Need visitor entry log book evidence of last 3 months.
+Need Visitor entry log book evidence of last 3 months.</t>
+    </r>
+  </si>
+  <si>
+    <t>Chennai
+1. Current dated CCTV evidence required
+2. List of users created on CCTV Console
+Thane - Okay 
+Vikhroli
+1. Current dated CCTV evidence required. Also we could see the CCTV of some areas are not working
+2.   List of users created on CCTV Console
+Noida - Missing</t>
+  </si>
+  <si>
+    <t>The provided evidence is incorrect</t>
+  </si>
+  <si>
+    <t>Please provide the encryption mechanism in use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please provide all the cron jobs created. </t>
+  </si>
+  <si>
+    <t>6/20/2025 - Incorrect evidence. The provided evidence is bussiness justification of users who can view/access card data. The document doesn't include details of who has the permission to copy and/or relocate PAN and other approval 
+Evidence required - A list of personnel with permission to copy and/or relocate PAN along with the documented, explicit authorization and legitimate, defined business need.</t>
+  </si>
+  <si>
+    <t>Application logs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embossa file details needs to be included in CHD Matrix </t>
+  </si>
+  <si>
+    <t>Embossa file PGP encryption evidence.
+How it is deleted once the file is shared for printing</t>
+  </si>
+  <si>
+    <t>PAM Authentication</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1553,6 +1707,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1913,8 +2071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2082,7 +2240,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>14</v>
@@ -2239,7 +2397,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -2282,10 +2440,10 @@
         <v>24</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -2306,7 +2464,7 @@
         <v>24</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -2353,7 +2511,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2374,10 +2532,10 @@
         <v>24</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="106" customHeight="1" x14ac:dyDescent="0.35">
@@ -2420,7 +2578,7 @@
         <v>44</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -2445,7 +2603,7 @@
         <v>13</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -2466,9 +2624,11 @@
         <v>44</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
@@ -2510,9 +2670,11 @@
         <v>44</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
@@ -2532,9 +2694,11 @@
         <v>52</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="G27" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="145" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
@@ -2554,9 +2718,11 @@
         <v>52</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="G28" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
@@ -2574,7 +2740,7 @@
         <v>52</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="G29" s="11"/>
     </row>
@@ -2663,7 +2829,7 @@
         <v>13</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2684,7 +2850,7 @@
         <v>52</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G34" s="11"/>
     </row>
@@ -2706,9 +2872,11 @@
         <v>52</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="146" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
@@ -2729,7 +2897,7 @@
         <v>13</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>64</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -2741,10 +2909,10 @@
         <v>25</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>52</v>
@@ -2763,10 +2931,10 @@
         <v>25</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>52</v>
@@ -2785,10 +2953,10 @@
         <v>25</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>52</v>
@@ -2796,7 +2964,9 @@
       <c r="F39" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="11"/>
+      <c r="G39" s="11" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
@@ -2807,19 +2977,19 @@
         <v>25</v>
       </c>
       <c r="C40" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="14" t="s">
+      <c r="F40" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="G40" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.35">
@@ -2831,11 +3001,11 @@
         <v>25</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>21</v>
@@ -2851,13 +3021,13 @@
         <v>25</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>21</v>
@@ -2873,18 +3043,20 @@
         <v>25</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="11"/>
+      <c r="G43" s="11" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="44" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
@@ -2895,13 +3067,13 @@
         <v>22</v>
       </c>
       <c r="C44" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>76</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>10</v>
@@ -2917,19 +3089,19 @@
         <v>46</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
@@ -2941,13 +3113,13 @@
         <v>25</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>21</v>
@@ -2963,13 +3135,13 @@
         <v>25</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>21</v>
@@ -2985,11 +3157,11 @@
         <v>25</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>10</v>
@@ -3005,11 +3177,11 @@
         <v>25</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D49" s="15"/>
       <c r="E49" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>10</v>
@@ -3025,19 +3197,19 @@
         <v>22</v>
       </c>
       <c r="C50" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E50" s="14" t="s">
+      <c r="F50" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -3049,13 +3221,13 @@
         <v>46</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>21</v>
@@ -3071,40 +3243,42 @@
         <v>22</v>
       </c>
       <c r="C52" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="6">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D53" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E52" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A53" s="6">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>87</v>
-      </c>
       <c r="E53" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" s="11"/>
+        <v>69</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="54" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A54" s="6">
@@ -3115,19 +3289,19 @@
         <v>25</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.35">
@@ -3139,19 +3313,19 @@
         <v>25</v>
       </c>
       <c r="C55" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D55" s="15" t="s">
-        <v>90</v>
-      </c>
       <c r="E55" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.35">
@@ -3163,10 +3337,10 @@
         <v>25</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>21</v>
@@ -3182,13 +3356,13 @@
         <v>25</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G57" s="11"/>
     </row>
@@ -3201,10 +3375,10 @@
         <v>25</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>21</v>
@@ -3220,19 +3394,19 @@
         <v>25</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="78.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3244,19 +3418,19 @@
         <v>25</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.35">
@@ -3268,19 +3442,19 @@
         <v>25</v>
       </c>
       <c r="C61" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D61" s="15" t="s">
-        <v>97</v>
-      </c>
       <c r="E61" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -3292,13 +3466,13 @@
         <v>22</v>
       </c>
       <c r="C62" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E62" s="14" t="s">
         <v>98</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>99</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>10</v>
@@ -3314,13 +3488,13 @@
         <v>46</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>21</v>
@@ -3336,16 +3510,16 @@
         <v>25</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -3357,13 +3531,13 @@
         <v>25</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>10</v>
@@ -3379,16 +3553,16 @@
         <v>22</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G66" s="11"/>
     </row>
@@ -3401,19 +3575,19 @@
         <v>25</v>
       </c>
       <c r="C67" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D67" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D67" s="15" t="s">
-        <v>105</v>
-      </c>
       <c r="E67" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="203" x14ac:dyDescent="0.35">
@@ -3425,13 +3599,13 @@
         <v>25</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F68" s="8" t="s">
         <v>10</v>
@@ -3447,16 +3621,16 @@
         <v>25</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G69" s="11"/>
     </row>
@@ -3469,18 +3643,20 @@
         <v>46</v>
       </c>
       <c r="C70" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E70" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D70" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E70" s="14" t="s">
-        <v>109</v>
-      </c>
       <c r="F70" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="71" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A71" s="6">
@@ -3491,16 +3667,16 @@
         <v>46</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G71" s="11"/>
     </row>
@@ -3513,16 +3689,16 @@
         <v>25</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G72" s="11"/>
     </row>
@@ -3535,13 +3711,13 @@
         <v>25</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F73" s="8" t="s">
         <v>10</v>
@@ -3557,16 +3733,16 @@
         <v>25</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G74" s="11"/>
     </row>
@@ -3579,19 +3755,19 @@
         <v>25</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="203" x14ac:dyDescent="0.35">
@@ -3603,14 +3779,14 @@
         <v>25</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D76" s="15"/>
       <c r="E76" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G76" s="11"/>
     </row>
@@ -3623,14 +3799,14 @@
         <v>25</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D77" s="15"/>
       <c r="E77" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G77" s="11"/>
     </row>
@@ -3643,14 +3819,14 @@
         <v>25</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D78" s="15"/>
       <c r="E78" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G78" s="11"/>
     </row>
@@ -3663,19 +3839,19 @@
         <v>25</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -3687,19 +3863,19 @@
         <v>25</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F80" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3711,18 +3887,18 @@
         <v>22</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D81" s="15"/>
       <c r="E81" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F81" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="11"/>
     </row>
-    <row r="82" spans="1:7" ht="167" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="203" x14ac:dyDescent="0.35">
       <c r="A82" s="6">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -3731,19 +3907,19 @@
         <v>25</v>
       </c>
       <c r="C82" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E82" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D82" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E82" s="14" t="s">
-        <v>122</v>
-      </c>
       <c r="F82" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G82" s="16" t="s">
-        <v>196</v>
+        <v>69</v>
+      </c>
+      <c r="G82" s="26" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="102.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3755,20 +3931,20 @@
         <v>25</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F83" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="11"/>
     </row>
-    <row r="84" spans="1:7" ht="191.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="191" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="6">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -3777,19 +3953,19 @@
         <v>25</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -3801,13 +3977,13 @@
         <v>22</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>10</v>
@@ -3823,16 +3999,16 @@
         <v>25</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G86" s="11"/>
     </row>
@@ -3845,19 +4021,19 @@
         <v>25</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="61" customHeight="1" x14ac:dyDescent="0.35">
@@ -3869,19 +4045,19 @@
         <v>25</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F88" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
@@ -3893,13 +4069,13 @@
         <v>25</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F89" s="8" t="s">
         <v>21</v>
@@ -3915,13 +4091,13 @@
         <v>25</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F90" s="8" t="s">
         <v>10</v>
@@ -3937,13 +4113,13 @@
         <v>25</v>
       </c>
       <c r="C91" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E91" s="14" t="s">
         <v>131</v>
-      </c>
-      <c r="D91" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E91" s="14" t="s">
-        <v>132</v>
       </c>
       <c r="F91" s="8" t="s">
         <v>21</v>
@@ -3959,13 +4135,13 @@
         <v>46</v>
       </c>
       <c r="C92" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E92" s="14" t="s">
         <v>133</v>
-      </c>
-      <c r="D92" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E92" s="14" t="s">
-        <v>134</v>
       </c>
       <c r="F92" s="8" t="s">
         <v>21</v>
@@ -3981,19 +4157,19 @@
         <v>25</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
@@ -4005,13 +4181,13 @@
         <v>46</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F94" s="8" t="s">
         <v>21</v>
@@ -4027,19 +4203,19 @@
         <v>25</v>
       </c>
       <c r="C95" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G95" s="16" t="s">
         <v>137</v>
-      </c>
-      <c r="D95" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E95" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G95" s="16" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -4051,13 +4227,13 @@
         <v>25</v>
       </c>
       <c r="C96" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D96" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D96" s="15" t="s">
-        <v>140</v>
-      </c>
       <c r="E96" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F96" s="8" t="s">
         <v>10</v>
@@ -4073,13 +4249,13 @@
         <v>25</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F97" s="8" t="s">
         <v>10</v>
@@ -4095,13 +4271,13 @@
         <v>25</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F98" s="8" t="s">
         <v>10</v>
@@ -4117,11 +4293,11 @@
         <v>25</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D99" s="15"/>
       <c r="E99" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F99" s="8" t="s">
         <v>10</v>
@@ -4137,13 +4313,13 @@
         <v>22</v>
       </c>
       <c r="C100" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E100" s="14" t="s">
         <v>144</v>
-      </c>
-      <c r="D100" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E100" s="14" t="s">
-        <v>145</v>
       </c>
       <c r="F100" s="8" t="s">
         <v>21</v>
@@ -4159,19 +4335,19 @@
         <v>25</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -4183,13 +4359,13 @@
         <v>22</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F102" s="8" t="s">
         <v>10</v>
@@ -4205,18 +4381,20 @@
         <v>25</v>
       </c>
       <c r="C103" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D103" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="D103" s="15" t="s">
-        <v>149</v>
-      </c>
       <c r="E103" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G103" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="G103" s="16" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="104" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="6">
@@ -4227,19 +4405,19 @@
         <v>25</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F104" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4251,13 +4429,13 @@
         <v>25</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D105" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F105" s="8" t="s">
         <v>10</v>
@@ -4273,19 +4451,19 @@
         <v>25</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F106" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -4297,19 +4475,19 @@
         <v>25</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F107" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -4321,13 +4499,13 @@
         <v>22</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E108" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F108" s="8" t="s">
         <v>10</v>
@@ -4343,19 +4521,19 @@
         <v>25</v>
       </c>
       <c r="C109" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D109" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D109" s="15" t="s">
-        <v>156</v>
-      </c>
       <c r="E109" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F109" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
@@ -4367,19 +4545,19 @@
         <v>25</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E110" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F110" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
@@ -4391,11 +4569,11 @@
         <v>25</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D111" s="15"/>
       <c r="E111" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F111" s="8" t="s">
         <v>21</v>
@@ -4411,13 +4589,13 @@
         <v>22</v>
       </c>
       <c r="C112" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D112" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E112" s="14" t="s">
         <v>159</v>
-      </c>
-      <c r="D112" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="E112" s="14" t="s">
-        <v>160</v>
       </c>
       <c r="F112" s="8" t="s">
         <v>10</v>
@@ -4433,13 +4611,13 @@
         <v>22</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F113" s="8" t="s">
         <v>10</v>
@@ -4455,13 +4633,13 @@
         <v>25</v>
       </c>
       <c r="C114" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D114" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="D114" s="15" t="s">
-        <v>163</v>
-      </c>
       <c r="E114" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F114" s="8" t="s">
         <v>21</v>
@@ -4477,13 +4655,13 @@
         <v>22</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F115" s="8" t="s">
         <v>10</v>
@@ -4499,13 +4677,13 @@
         <v>22</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F116" s="8" t="s">
         <v>10</v>
@@ -4521,13 +4699,13 @@
         <v>22</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E117" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F117" s="8" t="s">
         <v>10</v>
@@ -4543,13 +4721,13 @@
         <v>25</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E118" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F118" s="8" t="s">
         <v>21</v>
@@ -4565,17 +4743,17 @@
         <v>25</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D119" s="15"/>
       <c r="E119" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G119" s="11" t="s">
-        <v>198</v>
+        <v>69</v>
+      </c>
+      <c r="G119" s="16" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
@@ -4587,13 +4765,13 @@
         <v>25</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E120" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F120" s="8" t="s">
         <v>10</v>
@@ -4609,13 +4787,13 @@
         <v>22</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E121" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F121" s="8" t="s">
         <v>10</v>
@@ -4631,14 +4809,14 @@
         <v>22</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D122" s="15"/>
       <c r="E122" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G122" s="11"/>
     </row>
@@ -4651,13 +4829,13 @@
         <v>22</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E123" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F123" s="8" t="s">
         <v>10</v>
@@ -4673,11 +4851,11 @@
         <v>22</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D124" s="15"/>
       <c r="E124" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F124" s="8" t="s">
         <v>10</v>
@@ -4693,13 +4871,13 @@
         <v>22</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F125" s="8" t="s">
         <v>10</v>
@@ -4715,16 +4893,16 @@
         <v>22</v>
       </c>
       <c r="C126" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D126" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D126" s="15" t="s">
-        <v>176</v>
-      </c>
       <c r="E126" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G126" s="11"/>
     </row>
@@ -4737,19 +4915,19 @@
         <v>22</v>
       </c>
       <c r="C127" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D127" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D127" s="15" t="s">
-        <v>178</v>
-      </c>
       <c r="E127" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G127" s="16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -4761,20 +4939,20 @@
         <v>22</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F128" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="11"/>
     </row>
-    <row r="129" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A129" s="6">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -4783,18 +4961,20 @@
         <v>25</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G129" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="G129" s="16" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="130" spans="1:7" ht="47" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="6">
@@ -4805,13 +4985,13 @@
         <v>25</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E130" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F130" s="8" t="s">
         <v>10</v>
@@ -4827,13 +5007,13 @@
         <v>25</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E131" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F131" s="8" t="s">
         <v>10</v>
@@ -4849,13 +5029,13 @@
         <v>25</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E132" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F132" s="8" t="s">
         <v>10</v>
@@ -4871,13 +5051,13 @@
         <v>25</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E133" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F133" s="8" t="s">
         <v>10</v>
@@ -4893,13 +5073,13 @@
         <v>22</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F134" s="8" t="s">
         <v>10</v>
@@ -4907,7 +5087,7 @@
       <c r="G134" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/MKBWL3N/euZEWYFdBz/6kh41o07LZGKX0RVjXU/dIxEM3kmaOgHPYBTxcYheaIFH2r+t+2noyhBV45L7tbfkw==" saltValue="dih821Sol7mC7Z/8JmQP8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KHP3dcOa4TH1ooCWUfg8oXe3+uIzL6g5FcKrUI9hMnJRNxif3xkQjdIXGpNhmcYitnOvLzx78ALAuv1GUvvlbg==" saltValue="Mr2k4cAeE7dtVIZZAvFvhQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A1:G134" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">

--- a/PCI_DSS_4.0.1_Compliance_Tracker_2025.xlsx
+++ b/PCI_DSS_4.0.1_Compliance_Tracker_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuevsued-my.sharepoint.com/personal/nair-st_in001_itgr_net/Documents/PCI/Dashboard Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="231" documentId="11_F25DC773A252ABDACC104850695C46945BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72610510-FF37-436A-9428-0BAB2158ABDA}"/>
+  <xr:revisionPtr revIDLastSave="320" documentId="11_F25DC773A252ABDACC104850695C46945BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAFC695B-F63B-4C9F-B2D5-A04FDFE654B5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="231">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>PCI DSS Scope Review and Validation Document</t>
-  </si>
-  <si>
-    <t>Not Provided</t>
   </si>
   <si>
     <t>Pre-Scoping</t>
@@ -1147,18 +1144,7 @@
     <t>Network device (FW, Switch, Router), DB logs missing</t>
   </si>
   <si>
-    <t>Incorrect Evidence - Segmentation PT Report Provided</t>
-  </si>
-  <si>
-    <t>H1 Report - Okay 
-H2 Report - Pending</t>
-  </si>
-  <si>
     <t>Please refer to the Sample Set review sheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Media Disposal Procedure - Okay
-Media Destructtion Records - Pending </t>
   </si>
   <si>
     <t>Please provide evidence for sampled database</t>
@@ -1286,9 +1272,60 @@
     <t>Q4 - Pending</t>
   </si>
   <si>
+    <t>Please provide the encryption mechanism in use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please provide all the cron jobs created. </t>
+  </si>
+  <si>
+    <t>6/20/2025 - Incorrect evidence. The provided evidence is bussiness justification of users who can view/access card data. The document doesn't include details of who has the permission to copy and/or relocate PAN and other approval 
+Evidence required - A list of personnel with permission to copy and/or relocate PAN along with the documented, explicit authorization and legitimate, defined business need.</t>
+  </si>
+  <si>
+    <t>Application logs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embossa file details needs to be included in CHD Matrix </t>
+  </si>
+  <si>
+    <t>Embossa file PGP encryption evidence.
+How it is deleted once the file is shared for printing</t>
+  </si>
+  <si>
+    <t>PAM Authentication</t>
+  </si>
+  <si>
+    <t>Please provide the training records</t>
+  </si>
+  <si>
+    <t>Confirmed by client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The provided file doesn't seems to be an proper inventory. </t>
+  </si>
+  <si>
+    <t>The provided evidence is incorrect.
+6/24/2025 - Incorrect evidence - CHD matrix uploaded.</t>
+  </si>
+  <si>
+    <t>6/24/2025 - Missing below evidence 
+ - Anti Malware update frequency
+ - Anti Malware scan frequency</t>
+  </si>
+  <si>
     <t>Media Inventory - Pending
-Sify - navi mumbai
 Noida</t>
+  </si>
+  <si>
+    <t>Media Disposal Procedure - Okay
+No media destructed in last 10 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Under Review</t>
   </si>
   <si>
     <r>
@@ -1300,63 +1337,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>SELP - AOC required
-Wibmo - Pending
+      <t xml:space="preserve">SELP - AOC required
 Paycore - Pending
-SISA - Pending</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Airpay - Okay
-Ezetap - Okay
-Lyra - Okay
-M-Tech Innovations Ltd - Okay
-Manipal - Okay
-Sify - Okay (Certified by TUV)
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Thane</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 
-- Log book for visitor access to facility -- Logs records provided only for the month of June. Need screenshot evidence of May and April.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Chennai:
 </t>
     </r>
     <r>
@@ -1367,91 +1349,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Evidence of visitor badges (provide one or two sample visitor badge), showing the contents on the badge and the color of the badge. - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Missing
-Noida
+      <t xml:space="preserve">SISA - Okay
+Airpay - Okay
+Ezetap - Okay
+Lyra - Okay
+M-Tech Innovations Ltd - Okay
+Manipal - Okay
+Sify - Okay (Certified by TUV)
 </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Provide all the evidence
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vikhroli</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Need visitor entry log book evidence of last 3 months.
-Need Visitor entry log book evidence of last 3 months.</t>
-    </r>
-  </si>
-  <si>
-    <t>Chennai
-1. Current dated CCTV evidence required
-2. List of users created on CCTV Console
-Thane - Okay 
-Vikhroli
-1. Current dated CCTV evidence required. Also we could see the CCTV of some areas are not working
-2.   List of users created on CCTV Console
-Noida - Missing</t>
-  </si>
-  <si>
-    <t>The provided evidence is incorrect</t>
-  </si>
-  <si>
-    <t>Please provide the encryption mechanism in use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please provide all the cron jobs created. </t>
-  </si>
-  <si>
-    <t>6/20/2025 - Incorrect evidence. The provided evidence is bussiness justification of users who can view/access card data. The document doesn't include details of who has the permission to copy and/or relocate PAN and other approval 
-Evidence required - A list of personnel with permission to copy and/or relocate PAN along with the documented, explicit authorization and legitimate, defined business need.</t>
-  </si>
-  <si>
-    <t>Application logs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Embossa file details needs to be included in CHD Matrix </t>
-  </si>
-  <si>
-    <t>Embossa file PGP encryption evidence.
-How it is deleted once the file is shared for printing</t>
-  </si>
-  <si>
-    <t>PAM Authentication</t>
+  </si>
+  <si>
+    <t>Incorrect Evidence - Segmentation PT Report Provided
+6/24/2025  -- AV Policy Uploaded
+6/25/2025 - Accepting based on DLP justification. However HPY needs to provide required evidence for the next cert cycle.</t>
+  </si>
+  <si>
+    <t>H1 Report - Okay 
+H2 Report - Dated - Feb 2024 - not valid</t>
+  </si>
+  <si>
+    <t>Refer to the sample set review sheet</t>
+  </si>
+  <si>
+    <t>Risk acceptance evidence will be uploaded by HPY</t>
   </si>
 </sst>
 </file>
@@ -1802,10 +1723,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2071,9 +1988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2286,7 +2201,7 @@
         <v>9</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -2296,14 +2211,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>10</v>
@@ -2316,16 +2231,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="E11" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>28</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>10</v>
@@ -2338,16 +2253,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>30</v>
-      </c>
       <c r="E12" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>10</v>
@@ -2360,19 +2275,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G13" s="11"/>
     </row>
@@ -2382,22 +2297,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -2406,16 +2321,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>34</v>
-      </c>
       <c r="E15" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>10</v>
@@ -2428,22 +2343,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>36</v>
-      </c>
       <c r="E16" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -2452,19 +2367,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -2474,16 +2389,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>10</v>
@@ -2496,22 +2411,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2520,22 +2435,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="106" customHeight="1" x14ac:dyDescent="0.35">
@@ -2544,16 +2459,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>42</v>
-      </c>
       <c r="E21" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>10</v>
@@ -2566,19 +2481,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>44</v>
-      </c>
       <c r="F22" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -2588,22 +2503,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -2612,22 +2527,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="D24" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -2636,21 +2551,23 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="11"/>
+        <v>202</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
@@ -2658,22 +2575,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -2682,22 +2599,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="E27" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>52</v>
-      </c>
       <c r="F27" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="145" x14ac:dyDescent="0.35">
@@ -2706,22 +2623,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>54</v>
-      </c>
       <c r="E28" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
@@ -2730,17 +2647,17 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G29" s="11"/>
     </row>
@@ -2750,16 +2667,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>10</v>
@@ -2772,16 +2689,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>10</v>
@@ -2794,14 +2711,14 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>10</v>
@@ -2814,22 +2731,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="15" t="s">
-        <v>60</v>
-      </c>
       <c r="E33" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2838,19 +2755,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G34" s="11"/>
     </row>
@@ -2860,22 +2777,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="146" customHeight="1" x14ac:dyDescent="0.35">
@@ -2884,20 +2801,20 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>13</v>
+        <v>202</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -2906,16 +2823,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>10</v>
@@ -2928,16 +2845,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>10</v>
@@ -2950,22 +2867,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>13</v>
+        <v>225</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2974,22 +2891,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>68</v>
-      </c>
       <c r="F40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.35">
@@ -2998,19 +2915,21 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" s="11"/>
+        <v>202</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
@@ -3018,19 +2937,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="G42" s="11"/>
     </row>
@@ -3040,22 +2959,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>13</v>
+        <v>202</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -3064,16 +2983,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C44" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="14" t="s">
         <v>74</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>75</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>10</v>
@@ -3086,22 +3005,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
@@ -3110,21 +3029,23 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
@@ -3132,19 +3053,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G47" s="11"/>
     </row>
@@ -3154,14 +3075,14 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>10</v>
@@ -3174,14 +3095,14 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D49" s="15"/>
       <c r="E49" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>10</v>
@@ -3194,22 +3115,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C50" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E50" s="14" t="s">
+      <c r="F50" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -3218,21 +3139,23 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="52" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
@@ -3240,44 +3163,44 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C52" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A53" s="6">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D53" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E52" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="6">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>86</v>
-      </c>
       <c r="E53" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>218</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
@@ -3286,22 +3209,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.35">
@@ -3310,22 +3233,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C55" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D55" s="15" t="s">
-        <v>89</v>
-      </c>
       <c r="E55" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>13</v>
+        <v>225</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.35">
@@ -3334,16 +3257,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G56" s="11"/>
     </row>
@@ -3353,13 +3276,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>10</v>
@@ -3372,16 +3295,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G58" s="11"/>
     </row>
@@ -3391,22 +3314,22 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="78.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3415,22 +3338,22 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.35">
@@ -3439,22 +3362,22 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C61" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D61" s="15" t="s">
-        <v>96</v>
-      </c>
       <c r="E61" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -3463,16 +3386,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C62" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E62" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>98</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>10</v>
@@ -3485,21 +3408,23 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="64" spans="1:7" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A64" s="6">
@@ -3507,19 +3432,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -3528,16 +3453,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>10</v>
@@ -3550,16 +3475,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F66" s="8" t="s">
         <v>10</v>
@@ -3572,22 +3497,22 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C67" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D67" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D67" s="15" t="s">
-        <v>104</v>
-      </c>
       <c r="E67" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="203" x14ac:dyDescent="0.35">
@@ -3596,16 +3521,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F68" s="8" t="s">
         <v>10</v>
@@ -3618,16 +3543,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F69" s="8" t="s">
         <v>10</v>
@@ -3640,22 +3565,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C70" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E70" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D70" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E70" s="14" t="s">
-        <v>108</v>
-      </c>
       <c r="F70" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -3664,16 +3589,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F71" s="8" t="s">
         <v>10</v>
@@ -3686,16 +3611,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F72" s="8" t="s">
         <v>10</v>
@@ -3708,16 +3633,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F73" s="8" t="s">
         <v>10</v>
@@ -3730,16 +3655,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F74" s="8" t="s">
         <v>10</v>
@@ -3752,22 +3677,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F75" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="203" x14ac:dyDescent="0.35">
@@ -3776,17 +3701,17 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D76" s="15"/>
       <c r="E76" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G76" s="11"/>
     </row>
@@ -3796,14 +3721,14 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D77" s="15"/>
       <c r="E77" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>10</v>
@@ -3816,17 +3741,17 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D78" s="15"/>
       <c r="E78" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G78" s="11"/>
     </row>
@@ -3836,22 +3761,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F79" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -3860,22 +3785,22 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3884,43 +3809,41 @@
         <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D81" s="15"/>
       <c r="E81" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F81" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="11"/>
     </row>
-    <row r="82" spans="1:7" ht="203" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A82" s="6">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C82" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E82" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D82" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E82" s="14" t="s">
-        <v>121</v>
-      </c>
       <c r="F82" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G82" s="26" t="s">
-        <v>217</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G82" s="26"/>
     </row>
     <row r="83" spans="1:7" ht="102.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="6">
@@ -3928,16 +3851,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F83" s="8" t="s">
         <v>10</v>
@@ -3950,22 +3873,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G84" s="16" t="s">
-        <v>216</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="26" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -3974,16 +3897,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>10</v>
@@ -3996,16 +3919,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F86" s="8" t="s">
         <v>10</v>
@@ -4018,22 +3941,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="61" customHeight="1" x14ac:dyDescent="0.35">
@@ -4042,22 +3965,22 @@
         <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
@@ -4066,21 +3989,23 @@
         <v>88</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="90" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A90" s="6">
@@ -4088,16 +4013,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F90" s="8" t="s">
         <v>10</v>
@@ -4110,19 +4035,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C91" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E91" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D91" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E91" s="14" t="s">
-        <v>131</v>
-      </c>
       <c r="F91" s="8" t="s">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="G91" s="11"/>
     </row>
@@ -4132,21 +4057,23 @@
         <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C92" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E92" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D92" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E92" s="14" t="s">
-        <v>133</v>
-      </c>
       <c r="F92" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="93" spans="1:7" ht="327" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="6">
@@ -4154,22 +4081,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
@@ -4178,44 +4105,44 @@
         <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G94" s="11"/>
     </row>
-    <row r="95" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="6">
         <f t="shared" ref="A95:A134" si="2">ROW()-1</f>
         <v>94</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C95" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="16" t="s">
         <v>136</v>
-      </c>
-      <c r="D95" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E95" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G95" s="16" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -4224,16 +4151,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C96" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D96" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D96" s="15" t="s">
-        <v>139</v>
-      </c>
       <c r="E96" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F96" s="8" t="s">
         <v>10</v>
@@ -4246,16 +4173,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F97" s="8" t="s">
         <v>10</v>
@@ -4268,16 +4195,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F98" s="8" t="s">
         <v>10</v>
@@ -4290,14 +4217,14 @@
         <v>98</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D99" s="15"/>
       <c r="E99" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F99" s="8" t="s">
         <v>10</v>
@@ -4310,44 +4237,44 @@
         <v>99</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C100" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E100" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D100" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="E100" s="14" t="s">
-        <v>144</v>
-      </c>
       <c r="F100" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G100" s="11"/>
     </row>
-    <row r="101" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="6">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -4356,16 +4283,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F102" s="8" t="s">
         <v>10</v>
@@ -4378,22 +4305,22 @@
         <v>102</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C103" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D103" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D103" s="15" t="s">
-        <v>148</v>
-      </c>
       <c r="E103" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F103" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -4402,22 +4329,22 @@
         <v>103</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F104" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4426,16 +4353,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D105" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F105" s="8" t="s">
         <v>10</v>
@@ -4448,22 +4375,22 @@
         <v>105</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F106" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -4472,22 +4399,22 @@
         <v>106</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F107" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -4496,16 +4423,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E108" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F108" s="8" t="s">
         <v>10</v>
@@ -4518,22 +4445,22 @@
         <v>108</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C109" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D109" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D109" s="15" t="s">
-        <v>155</v>
-      </c>
       <c r="E109" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F109" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
@@ -4542,22 +4469,22 @@
         <v>109</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E110" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F110" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
@@ -4566,17 +4493,17 @@
         <v>110</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D111" s="15"/>
       <c r="E111" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="G111" s="11"/>
     </row>
@@ -4586,16 +4513,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C112" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D112" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E112" s="14" t="s">
         <v>158</v>
-      </c>
-      <c r="D112" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="E112" s="14" t="s">
-        <v>159</v>
       </c>
       <c r="F112" s="8" t="s">
         <v>10</v>
@@ -4608,16 +4535,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F113" s="8" t="s">
         <v>10</v>
@@ -4630,19 +4557,19 @@
         <v>113</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C114" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D114" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D114" s="15" t="s">
-        <v>162</v>
-      </c>
       <c r="E114" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G114" s="11"/>
     </row>
@@ -4652,16 +4579,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F115" s="8" t="s">
         <v>10</v>
@@ -4674,16 +4601,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F116" s="8" t="s">
         <v>10</v>
@@ -4696,16 +4623,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E117" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F117" s="8" t="s">
         <v>10</v>
@@ -4718,21 +4645,23 @@
         <v>117</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E118" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="G118" s="11" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="119" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A119" s="6">
@@ -4740,20 +4669,20 @@
         <v>118</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D119" s="15"/>
       <c r="E119" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
@@ -4762,16 +4691,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E120" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F120" s="8" t="s">
         <v>10</v>
@@ -4784,16 +4713,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E121" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F121" s="8" t="s">
         <v>10</v>
@@ -4806,14 +4735,14 @@
         <v>121</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D122" s="15"/>
       <c r="E122" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F122" s="8" t="s">
         <v>10</v>
@@ -4826,16 +4755,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E123" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F123" s="8" t="s">
         <v>10</v>
@@ -4848,14 +4777,14 @@
         <v>123</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D124" s="15"/>
       <c r="E124" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F124" s="8" t="s">
         <v>10</v>
@@ -4868,16 +4797,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F125" s="8" t="s">
         <v>10</v>
@@ -4890,19 +4819,19 @@
         <v>125</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C126" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D126" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="D126" s="15" t="s">
-        <v>175</v>
-      </c>
       <c r="E126" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G126" s="11"/>
     </row>
@@ -4912,22 +4841,22 @@
         <v>126</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C127" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D127" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="D127" s="15" t="s">
-        <v>177</v>
-      </c>
       <c r="E127" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="G127" s="16" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -4936,44 +4865,44 @@
         <v>127</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F128" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="11"/>
     </row>
-    <row r="129" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" ht="145" x14ac:dyDescent="0.35">
       <c r="A129" s="6">
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F129" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="47" customHeight="1" x14ac:dyDescent="0.35">
@@ -4982,16 +4911,16 @@
         <v>129</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E130" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F130" s="8" t="s">
         <v>10</v>
@@ -5004,16 +4933,16 @@
         <v>130</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E131" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F131" s="8" t="s">
         <v>10</v>
@@ -5026,16 +4955,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E132" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F132" s="8" t="s">
         <v>10</v>
@@ -5048,16 +4977,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E133" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F133" s="8" t="s">
         <v>10</v>
@@ -5070,16 +4999,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F134" s="8" t="s">
         <v>10</v>
@@ -5087,7 +5016,6 @@
       <c r="G134" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KHP3dcOa4TH1ooCWUfg8oXe3+uIzL6g5FcKrUI9hMnJRNxif3xkQjdIXGpNhmcYitnOvLzx78ALAuv1GUvvlbg==" saltValue="Mr2k4cAeE7dtVIZZAvFvhQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A1:G134" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">

--- a/PCI_DSS_4.0.1_Compliance_Tracker_2025.xlsx
+++ b/PCI_DSS_4.0.1_Compliance_Tracker_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuevsued-my.sharepoint.com/personal/nair-st_in001_itgr_net/Documents/PCI/Dashboard Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="320" documentId="11_F25DC773A252ABDACC104850695C46945BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAFC695B-F63B-4C9F-B2D5-A04FDFE654B5}"/>
+  <xr:revisionPtr revIDLastSave="331" documentId="11_F25DC773A252ABDACC104850695C46945BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{015169E6-BC75-4C19-B0CD-0651D6297F00}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="229">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -342,9 +342,6 @@
   </si>
   <si>
     <t>REQ 4</t>
-  </si>
-  <si>
-    <t>Pending - Incorrect Evidence</t>
   </si>
   <si>
     <t>Evidence of use of HTTPS, TLS 1.2 or above required</t>
@@ -1325,7 +1322,19 @@
 </t>
   </si>
   <si>
-    <t>Under Review</t>
+    <t>Incorrect Evidence - Segmentation PT Report Provided
+6/24/2025  -- AV Policy Uploaded
+6/25/2025 - Accepting based on DLP justification. However HPY needs to provide required evidence for the next cert cycle.</t>
+  </si>
+  <si>
+    <t>H1 Report - Okay 
+H2 Report - Dated - Feb 2024 - not valid</t>
+  </si>
+  <si>
+    <t>Refer to the sample set review sheet</t>
+  </si>
+  <si>
+    <t>Risk acceptance evidence will be uploaded by HPY</t>
   </si>
   <si>
     <r>
@@ -1338,7 +1347,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">SELP - AOC required
-Paycore - Pending
+Paycore - Okay
 </t>
     </r>
     <r>
@@ -1358,21 +1367,6 @@
 Sify - Okay (Certified by TUV)
 </t>
     </r>
-  </si>
-  <si>
-    <t>Incorrect Evidence - Segmentation PT Report Provided
-6/24/2025  -- AV Policy Uploaded
-6/25/2025 - Accepting based on DLP justification. However HPY needs to provide required evidence for the next cert cycle.</t>
-  </si>
-  <si>
-    <t>H1 Report - Okay 
-H2 Report - Dated - Feb 2024 - not valid</t>
-  </si>
-  <si>
-    <t>Refer to the sample set review sheet</t>
-  </si>
-  <si>
-    <t>Risk acceptance evidence will be uploaded by HPY</t>
   </si>
 </sst>
 </file>
@@ -1723,6 +1717,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1988,7 +1986,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2087,7 +2087,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>14</v>
@@ -2312,7 +2312,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -2355,10 +2355,10 @@
         <v>23</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -2379,7 +2379,7 @@
         <v>23</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -2426,7 +2426,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2450,7 +2450,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="106" customHeight="1" x14ac:dyDescent="0.35">
@@ -2493,7 +2493,7 @@
         <v>43</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -2518,7 +2518,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -2542,7 +2542,7 @@
         <v>13</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -2563,10 +2563,10 @@
         <v>43</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -2590,7 +2590,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -2614,7 +2614,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="145" x14ac:dyDescent="0.35">
@@ -2638,7 +2638,7 @@
         <v>13</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
@@ -2657,7 +2657,7 @@
         <v>51</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>68</v>
+        <v>196</v>
       </c>
       <c r="G29" s="11"/>
     </row>
@@ -2746,7 +2746,7 @@
         <v>13</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2767,7 +2767,7 @@
         <v>51</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G34" s="11"/>
     </row>
@@ -2792,7 +2792,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="146" customHeight="1" x14ac:dyDescent="0.35">
@@ -2811,10 +2811,10 @@
         <v>51</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -2879,10 +2879,10 @@
         <v>51</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2906,7 +2906,7 @@
         <v>10</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.35">
@@ -2918,17 +2918,17 @@
         <v>24</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="14" t="s">
         <v>67</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -2940,16 +2940,16 @@
         <v>24</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>67</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>225</v>
+        <v>10</v>
       </c>
       <c r="G42" s="11"/>
     </row>
@@ -2962,19 +2962,19 @@
         <v>24</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>67</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -2986,13 +2986,13 @@
         <v>21</v>
       </c>
       <c r="C44" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>10</v>
@@ -3008,19 +3008,19 @@
         <v>45</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
@@ -3032,19 +3032,19 @@
         <v>24</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="87" x14ac:dyDescent="0.35">
@@ -3056,13 +3056,13 @@
         <v>24</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>10</v>
@@ -3078,11 +3078,11 @@
         <v>24</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>10</v>
@@ -3098,11 +3098,11 @@
         <v>24</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D49" s="15"/>
       <c r="E49" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>10</v>
@@ -3118,19 +3118,19 @@
         <v>21</v>
       </c>
       <c r="C50" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E50" s="14" t="s">
+      <c r="F50" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -3142,19 +3142,19 @@
         <v>45</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -3166,13 +3166,13 @@
         <v>21</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>10</v>
@@ -3188,19 +3188,19 @@
         <v>24</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
@@ -3212,19 +3212,19 @@
         <v>24</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.35">
@@ -3236,19 +3236,19 @@
         <v>24</v>
       </c>
       <c r="C55" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="15" t="s">
-        <v>88</v>
-      </c>
       <c r="E55" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.35">
@@ -3260,10 +3260,10 @@
         <v>24</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>10</v>
@@ -3279,10 +3279,10 @@
         <v>24</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>10</v>
@@ -3298,10 +3298,10 @@
         <v>24</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>10</v>
@@ -3317,19 +3317,19 @@
         <v>24</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="78.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3341,19 +3341,19 @@
         <v>24</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.35">
@@ -3365,19 +3365,19 @@
         <v>24</v>
       </c>
       <c r="C61" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D61" s="15" t="s">
-        <v>95</v>
-      </c>
       <c r="E61" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -3389,13 +3389,13 @@
         <v>21</v>
       </c>
       <c r="C62" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="14" t="s">
         <v>96</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>97</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>10</v>
@@ -3411,19 +3411,19 @@
         <v>45</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:7" customFormat="1" ht="58" x14ac:dyDescent="0.35">
@@ -3435,16 +3435,16 @@
         <v>24</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -3456,13 +3456,13 @@
         <v>24</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>10</v>
@@ -3478,13 +3478,13 @@
         <v>21</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F66" s="8" t="s">
         <v>10</v>
@@ -3500,19 +3500,19 @@
         <v>24</v>
       </c>
       <c r="C67" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D67" s="15" t="s">
-        <v>103</v>
-      </c>
       <c r="E67" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="203" x14ac:dyDescent="0.35">
@@ -3524,13 +3524,13 @@
         <v>24</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F68" s="8" t="s">
         <v>10</v>
@@ -3546,13 +3546,13 @@
         <v>24</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F69" s="8" t="s">
         <v>10</v>
@@ -3568,19 +3568,19 @@
         <v>45</v>
       </c>
       <c r="C70" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E70" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D70" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E70" s="14" t="s">
-        <v>107</v>
-      </c>
       <c r="F70" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -3592,13 +3592,13 @@
         <v>45</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F71" s="8" t="s">
         <v>10</v>
@@ -3614,13 +3614,13 @@
         <v>24</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F72" s="8" t="s">
         <v>10</v>
@@ -3636,13 +3636,13 @@
         <v>24</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F73" s="8" t="s">
         <v>10</v>
@@ -3658,13 +3658,13 @@
         <v>24</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F74" s="8" t="s">
         <v>10</v>
@@ -3680,19 +3680,19 @@
         <v>24</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F75" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="203" x14ac:dyDescent="0.35">
@@ -3704,14 +3704,14 @@
         <v>24</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D76" s="15"/>
       <c r="E76" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G76" s="11"/>
     </row>
@@ -3724,11 +3724,11 @@
         <v>24</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D77" s="15"/>
       <c r="E77" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>10</v>
@@ -3744,14 +3744,14 @@
         <v>24</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D78" s="15"/>
       <c r="E78" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G78" s="11"/>
     </row>
@@ -3764,19 +3764,19 @@
         <v>24</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F79" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -3788,19 +3788,19 @@
         <v>24</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F80" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3812,11 +3812,11 @@
         <v>21</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D81" s="15"/>
       <c r="E81" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F81" s="8" t="s">
         <v>10</v>
@@ -3832,13 +3832,13 @@
         <v>24</v>
       </c>
       <c r="C82" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E82" s="14" t="s">
         <v>119</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="E82" s="14" t="s">
-        <v>120</v>
       </c>
       <c r="F82" s="8" t="s">
         <v>10</v>
@@ -3854,13 +3854,13 @@
         <v>24</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F83" s="8" t="s">
         <v>10</v>
@@ -3876,19 +3876,19 @@
         <v>24</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F84" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -3900,13 +3900,13 @@
         <v>21</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>10</v>
@@ -3922,13 +3922,13 @@
         <v>24</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F86" s="8" t="s">
         <v>10</v>
@@ -3944,19 +3944,19 @@
         <v>24</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="61" customHeight="1" x14ac:dyDescent="0.35">
@@ -3968,19 +3968,19 @@
         <v>24</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F88" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
@@ -3992,19 +3992,19 @@
         <v>24</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="116" x14ac:dyDescent="0.35">
@@ -4016,13 +4016,13 @@
         <v>24</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F90" s="8" t="s">
         <v>10</v>
@@ -4038,16 +4038,16 @@
         <v>24</v>
       </c>
       <c r="C91" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E91" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D91" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="E91" s="14" t="s">
-        <v>130</v>
-      </c>
       <c r="F91" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G91" s="11"/>
     </row>
@@ -4060,19 +4060,19 @@
         <v>45</v>
       </c>
       <c r="C92" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E92" s="14" t="s">
         <v>131</v>
-      </c>
-      <c r="D92" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E92" s="14" t="s">
-        <v>132</v>
       </c>
       <c r="F92" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="327" customHeight="1" x14ac:dyDescent="0.35">
@@ -4084,19 +4084,19 @@
         <v>24</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F93" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
@@ -4108,13 +4108,13 @@
         <v>45</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F94" s="8" t="s">
         <v>10</v>
@@ -4130,19 +4130,19 @@
         <v>24</v>
       </c>
       <c r="C95" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="16" t="s">
         <v>135</v>
-      </c>
-      <c r="D95" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E95" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="16" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -4154,13 +4154,13 @@
         <v>24</v>
       </c>
       <c r="C96" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D96" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D96" s="15" t="s">
-        <v>138</v>
-      </c>
       <c r="E96" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F96" s="8" t="s">
         <v>10</v>
@@ -4176,13 +4176,13 @@
         <v>24</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F97" s="8" t="s">
         <v>10</v>
@@ -4198,13 +4198,13 @@
         <v>24</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F98" s="8" t="s">
         <v>10</v>
@@ -4220,11 +4220,11 @@
         <v>24</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D99" s="15"/>
       <c r="E99" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F99" s="8" t="s">
         <v>10</v>
@@ -4240,13 +4240,13 @@
         <v>21</v>
       </c>
       <c r="C100" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E100" s="14" t="s">
         <v>142</v>
-      </c>
-      <c r="D100" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="E100" s="14" t="s">
-        <v>143</v>
       </c>
       <c r="F100" s="8" t="s">
         <v>10</v>
@@ -4262,19 +4262,19 @@
         <v>24</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F101" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -4286,13 +4286,13 @@
         <v>21</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F102" s="8" t="s">
         <v>10</v>
@@ -4308,19 +4308,19 @@
         <v>24</v>
       </c>
       <c r="C103" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D103" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D103" s="15" t="s">
-        <v>147</v>
-      </c>
       <c r="E103" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F103" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -4332,19 +4332,19 @@
         <v>24</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F104" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4356,13 +4356,13 @@
         <v>24</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D105" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F105" s="8" t="s">
         <v>10</v>
@@ -4378,19 +4378,19 @@
         <v>24</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F106" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -4402,19 +4402,19 @@
         <v>24</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F107" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -4426,13 +4426,13 @@
         <v>21</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E108" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F108" s="8" t="s">
         <v>10</v>
@@ -4448,19 +4448,19 @@
         <v>24</v>
       </c>
       <c r="C109" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D109" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D109" s="15" t="s">
-        <v>154</v>
-      </c>
       <c r="E109" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F109" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
@@ -4472,19 +4472,19 @@
         <v>24</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E110" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F110" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
@@ -4496,14 +4496,14 @@
         <v>24</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D111" s="15"/>
       <c r="E111" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>225</v>
+        <v>10</v>
       </c>
       <c r="G111" s="11"/>
     </row>
@@ -4516,13 +4516,13 @@
         <v>21</v>
       </c>
       <c r="C112" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D112" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E112" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="D112" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="E112" s="14" t="s">
-        <v>158</v>
       </c>
       <c r="F112" s="8" t="s">
         <v>10</v>
@@ -4538,13 +4538,13 @@
         <v>21</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F113" s="8" t="s">
         <v>10</v>
@@ -4560,13 +4560,13 @@
         <v>24</v>
       </c>
       <c r="C114" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D114" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="D114" s="15" t="s">
-        <v>161</v>
-      </c>
       <c r="E114" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F114" s="8" t="s">
         <v>10</v>
@@ -4582,13 +4582,13 @@
         <v>21</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F115" s="8" t="s">
         <v>10</v>
@@ -4604,13 +4604,13 @@
         <v>21</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F116" s="8" t="s">
         <v>10</v>
@@ -4626,13 +4626,13 @@
         <v>21</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E117" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F117" s="8" t="s">
         <v>10</v>
@@ -4648,19 +4648,19 @@
         <v>24</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E118" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
@@ -4672,17 +4672,17 @@
         <v>24</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D119" s="15"/>
       <c r="E119" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
@@ -4694,13 +4694,13 @@
         <v>24</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E120" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F120" s="8" t="s">
         <v>10</v>
@@ -4716,13 +4716,13 @@
         <v>21</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E121" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F121" s="8" t="s">
         <v>10</v>
@@ -4738,11 +4738,11 @@
         <v>21</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D122" s="15"/>
       <c r="E122" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F122" s="8" t="s">
         <v>10</v>
@@ -4758,13 +4758,13 @@
         <v>21</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E123" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F123" s="8" t="s">
         <v>10</v>
@@ -4780,11 +4780,11 @@
         <v>21</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D124" s="15"/>
       <c r="E124" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F124" s="8" t="s">
         <v>10</v>
@@ -4800,13 +4800,13 @@
         <v>21</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F125" s="8" t="s">
         <v>10</v>
@@ -4822,16 +4822,16 @@
         <v>21</v>
       </c>
       <c r="C126" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D126" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="D126" s="15" t="s">
-        <v>174</v>
-      </c>
       <c r="E126" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G126" s="11"/>
     </row>
@@ -4844,19 +4844,19 @@
         <v>21</v>
       </c>
       <c r="C127" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D127" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D127" s="15" t="s">
-        <v>176</v>
-      </c>
       <c r="E127" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F127" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -4868,13 +4868,13 @@
         <v>21</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F128" s="8" t="s">
         <v>10</v>
@@ -4890,19 +4890,19 @@
         <v>24</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F129" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="47" customHeight="1" x14ac:dyDescent="0.35">
@@ -4914,13 +4914,13 @@
         <v>24</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E130" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F130" s="8" t="s">
         <v>10</v>
@@ -4936,13 +4936,13 @@
         <v>24</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E131" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F131" s="8" t="s">
         <v>10</v>
@@ -4958,13 +4958,13 @@
         <v>24</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E132" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F132" s="8" t="s">
         <v>10</v>
@@ -4980,13 +4980,13 @@
         <v>24</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E133" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F133" s="8" t="s">
         <v>10</v>
@@ -5002,13 +5002,13 @@
         <v>21</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F134" s="8" t="s">
         <v>10</v>
